--- a/state_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
+++ b/state_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U171"/>
+  <dimension ref="A1:U188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0895456431948262</v>
+        <v>0.0895524396075168</v>
       </c>
       <c r="H3" t="n">
         <v>4.671</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0895456431948262</v>
+        <v>0.0895524396075168</v>
       </c>
       <c r="H4" t="n">
         <v>4.671</v>
@@ -1153,7 +1153,7 @@
         <v>0.00554</v>
       </c>
       <c r="G9" t="n">
-        <v>0.024156725154949</v>
+        <v>0.0241634252915708</v>
       </c>
       <c r="H9" t="n">
         <v>0.669147959824046</v>
@@ -1234,7 +1234,7 @@
         <v>0.00554</v>
       </c>
       <c r="G10" t="n">
-        <v>0.024156725154949</v>
+        <v>0.0241634252915708</v>
       </c>
       <c r="H10" t="n">
         <v>0.669147959824046</v>
@@ -1315,7 +1315,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.409957432225917</v>
+        <v>0.40997512758077</v>
       </c>
       <c r="H11" t="n">
         <v>15.292</v>
@@ -1396,7 +1396,7 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.409957432225917</v>
+        <v>0.40997512758077</v>
       </c>
       <c r="H12" t="n">
         <v>15.292</v>
@@ -1473,7 +1473,7 @@
         <v>0.109</v>
       </c>
       <c r="G13" t="n">
-        <v>0.419286058232259</v>
+        <v>0.419305068704832</v>
       </c>
       <c r="H13" t="n">
         <v>17.52</v>
@@ -1484,13 +1484,13 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.0155</v>
+        <v>0.01525</v>
       </c>
       <c r="M13" t="n">
         <v>0.2467</v>
       </c>
       <c r="N13" t="n">
-        <v>0.38646</v>
+        <v>0.38655</v>
       </c>
       <c r="O13" t="n">
         <v>1803259.6</v>
@@ -1550,7 +1550,7 @@
         <v>0.109</v>
       </c>
       <c r="G14" t="n">
-        <v>0.419286058232259</v>
+        <v>0.419305068704832</v>
       </c>
       <c r="H14" t="n">
         <v>17.52</v>
@@ -1561,13 +1561,13 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.0155</v>
+        <v>0.01525</v>
       </c>
       <c r="M14" t="n">
         <v>0.2467</v>
       </c>
       <c r="N14" t="n">
-        <v>0.38646</v>
+        <v>0.38655</v>
       </c>
       <c r="O14" t="n">
         <v>1803259.6</v>
@@ -1781,7 +1781,7 @@
         <v>0.025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.16509174324058</v>
+        <v>0.165093418542238</v>
       </c>
       <c r="H17" t="n">
         <v>4.84</v>
@@ -1858,7 +1858,7 @@
         <v>0.025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.16509174324058</v>
+        <v>0.165093418542238</v>
       </c>
       <c r="H18" t="n">
         <v>4.84</v>
@@ -2020,7 +2020,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08940196654295671</v>
+        <v>0.0894043896717861</v>
       </c>
       <c r="H20" t="n">
         <v>4.671</v>
@@ -2101,7 +2101,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08940196654295671</v>
+        <v>0.0894043896717861</v>
       </c>
       <c r="H21" t="n">
         <v>4.671</v>
@@ -2522,7 +2522,7 @@
         <v>0.00624</v>
       </c>
       <c r="G26" t="n">
-        <v>0.024831987370071</v>
+        <v>0.0248356472655227</v>
       </c>
       <c r="H26" t="n">
         <v>0.669147959824046</v>
@@ -2603,7 +2603,7 @@
         <v>0.00624</v>
       </c>
       <c r="G27" t="n">
-        <v>0.024831987370071</v>
+        <v>0.0248356472655227</v>
       </c>
       <c r="H27" t="n">
         <v>0.669147959824046</v>
@@ -2684,7 +2684,7 @@
         <v>0.044</v>
       </c>
       <c r="G28" t="n">
-        <v>0.345613799645253</v>
+        <v>0.345628495787419</v>
       </c>
       <c r="H28" t="n">
         <v>15.292</v>
@@ -2765,7 +2765,7 @@
         <v>0.044</v>
       </c>
       <c r="G29" t="n">
-        <v>0.345613799645253</v>
+        <v>0.345628495787419</v>
       </c>
       <c r="H29" t="n">
         <v>15.292</v>
@@ -2839,16 +2839,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.051</v>
+        <v>0.0505</v>
       </c>
       <c r="G30" t="n">
-        <v>0.400372881355932</v>
+        <v>0.400401694915254</v>
       </c>
       <c r="H30" t="n">
         <v>17.52</v>
       </c>
       <c r="I30" t="n">
-        <v>0.42065</v>
+        <v>0.42083</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2916,16 +2916,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.051</v>
+        <v>0.0505</v>
       </c>
       <c r="G31" t="n">
-        <v>0.400372881355932</v>
+        <v>0.400401694915254</v>
       </c>
       <c r="H31" t="n">
         <v>17.52</v>
       </c>
       <c r="I31" t="n">
-        <v>0.42065</v>
+        <v>0.42083</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3150,7 +3150,7 @@
         <v>0.023</v>
       </c>
       <c r="G34" t="n">
-        <v>0.161922251715156</v>
+        <v>0.161923927016815</v>
       </c>
       <c r="H34" t="n">
         <v>4.84</v>
@@ -3227,7 +3227,7 @@
         <v>0.023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.161922251715156</v>
+        <v>0.161923927016815</v>
       </c>
       <c r="H35" t="n">
         <v>4.84</v>
@@ -3308,7 +3308,7 @@
         <v>1.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.58538476154604</v>
+        <v>1.58516562808149</v>
       </c>
       <c r="H36" t="n">
         <v>5</v>
@@ -3389,7 +3389,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0109952671005741</v>
+        <v>0.010997649843923</v>
       </c>
       <c r="H37" t="n">
         <v>0.07199999999999999</v>
@@ -3470,7 +3470,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0109952671005741</v>
+        <v>0.010997649843923</v>
       </c>
       <c r="H38" t="n">
         <v>0.07199999999999999</v>
@@ -3891,7 +3891,7 @@
         <v>0.00394</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0103224984340712</v>
+        <v>0.0103306169747434</v>
       </c>
       <c r="H43" t="n">
         <v>0.09110863162401781</v>
@@ -3972,7 +3972,7 @@
         <v>0.00394</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0103224984340712</v>
+        <v>0.0103306169747434</v>
       </c>
       <c r="H44" t="n">
         <v>0.09110863162401781</v>
@@ -4053,7 +4053,7 @@
         <v>0.0319</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0859317990137957</v>
+        <v>0.0859406680822711</v>
       </c>
       <c r="H45" t="n">
         <v>0.511</v>
@@ -4134,7 +4134,7 @@
         <v>0.0319</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0859317990137957</v>
+        <v>0.0859406680822711</v>
       </c>
       <c r="H46" t="n">
         <v>0.511</v>
@@ -4208,24 +4208,24 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.042</v>
+        <v>0.0422</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0992128122017151</v>
+        <v>0.0992945433355064</v>
       </c>
       <c r="H47" t="n">
         <v>0.535</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3005</v>
+        <v>0.3007</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.0105</v>
+        <v>0.0106</v>
       </c>
       <c r="M47" t="n">
-        <v>0.2147</v>
+        <v>0.21484</v>
       </c>
       <c r="N47" t="n">
         <v>0.249</v>
@@ -4285,24 +4285,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.042</v>
+        <v>0.0422</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0992128122017151</v>
+        <v>0.0992945433355064</v>
       </c>
       <c r="H48" t="n">
         <v>0.535</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3005</v>
+        <v>0.3007</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.0105</v>
+        <v>0.0106</v>
       </c>
       <c r="M48" t="n">
-        <v>0.2147</v>
+        <v>0.21484</v>
       </c>
       <c r="N48" t="n">
         <v>0.249</v>
@@ -4519,7 +4519,7 @@
         <v>0.022</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0660068808532368</v>
+        <v>0.066008528233201</v>
       </c>
       <c r="H51" t="n">
         <v>0.794</v>
@@ -4596,7 +4596,7 @@
         <v>0.022</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0660068808532368</v>
+        <v>0.066008528233201</v>
       </c>
       <c r="H52" t="n">
         <v>0.794</v>
@@ -4677,7 +4677,7 @@
         <v>1.55</v>
       </c>
       <c r="G53" t="n">
-        <v>1.52374808478582</v>
+        <v>1.52355226339197</v>
       </c>
       <c r="H53" t="n">
         <v>4.7</v>
@@ -4758,7 +4758,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0115798198931858</v>
+        <v>0.0115805156396723</v>
       </c>
       <c r="H54" t="n">
         <v>0.07199999999999999</v>
@@ -4839,7 +4839,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0115798198931858</v>
+        <v>0.0115805156396723</v>
       </c>
       <c r="H55" t="n">
         <v>0.07199999999999999</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00196</v>
+        <v>0.0021</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0548562975410503</v>
+        <v>0.0548875730316519</v>
       </c>
       <c r="H60" t="n">
         <v>2.69055740572037</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00194</v>
+        <v>0.00205</v>
       </c>
       <c r="M60" t="n">
         <v>0.01759</v>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00196</v>
+        <v>0.0021</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0548562975410503</v>
+        <v>0.0548875730316519</v>
       </c>
       <c r="H61" t="n">
         <v>2.69055740572037</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00194</v>
+        <v>0.00205</v>
       </c>
       <c r="M61" t="n">
         <v>0.01759</v>
@@ -5422,7 +5422,7 @@
         <v>0.022</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0795218666398787</v>
+        <v>0.0795426138789542</v>
       </c>
       <c r="H62" t="n">
         <v>0.511</v>
@@ -5433,7 +5433,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00103</v>
+        <v>0.00118</v>
       </c>
       <c r="M62" t="n">
         <v>0.1827</v>
@@ -5503,7 +5503,7 @@
         <v>0.022</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0795218666398787</v>
+        <v>0.0795426138789542</v>
       </c>
       <c r="H63" t="n">
         <v>0.511</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00103</v>
+        <v>0.00118</v>
       </c>
       <c r="M63" t="n">
         <v>0.1827</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.0365</v>
+        <v>0.03645</v>
       </c>
       <c r="G64" t="n">
-        <v>0.157389445778944</v>
+        <v>0.157503232346392</v>
       </c>
       <c r="H64" t="n">
         <v>4.2</v>
@@ -5591,13 +5591,13 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.00677</v>
+        <v>0.00725</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1886</v>
+        <v>0.18848</v>
       </c>
       <c r="N64" t="n">
-        <v>0.3108</v>
+        <v>0.31108</v>
       </c>
       <c r="O64" t="n">
         <v>1803259.6</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.0365</v>
+        <v>0.03645</v>
       </c>
       <c r="G65" t="n">
-        <v>0.157389445778944</v>
+        <v>0.157503232346392</v>
       </c>
       <c r="H65" t="n">
         <v>4.2</v>
@@ -5668,13 +5668,13 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.00677</v>
+        <v>0.00725</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1886</v>
+        <v>0.18848</v>
       </c>
       <c r="N65" t="n">
-        <v>0.3108</v>
+        <v>0.31108</v>
       </c>
       <c r="O65" t="n">
         <v>1803259.6</v>
@@ -5888,7 +5888,7 @@
         <v>0.0205</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08843937661114171</v>
+        <v>0.0884391406312969</v>
       </c>
       <c r="H68" t="n">
         <v>1.41</v>
@@ -5965,7 +5965,7 @@
         <v>0.0205</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08843937661114171</v>
+        <v>0.0884391406312969</v>
       </c>
       <c r="H69" t="n">
         <v>1.41</v>
@@ -6046,7 +6046,7 @@
         <v>1.05</v>
       </c>
       <c r="G70" t="n">
-        <v>1.33438319969867</v>
+        <v>1.33419912758845</v>
       </c>
       <c r="H70" t="n">
         <v>4.7</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00172</v>
+        <v>0.00181</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0499496025420446</v>
+        <v>0.0500124474352866</v>
       </c>
       <c r="H77" t="n">
         <v>2.69055740572037</v>
@@ -6640,10 +6640,10 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00194</v>
+        <v>0.00205</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00584</v>
+        <v>0.0061</v>
       </c>
       <c r="N77" t="n">
         <v>0.01202</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00172</v>
+        <v>0.00181</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0499496025420446</v>
+        <v>0.0500124474352866</v>
       </c>
       <c r="H78" t="n">
         <v>2.69055740572037</v>
@@ -6721,10 +6721,10 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00194</v>
+        <v>0.00205</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00584</v>
+        <v>0.0061</v>
       </c>
       <c r="N78" t="n">
         <v>0.01202</v>
@@ -6791,7 +6791,7 @@
         <v>0.02575</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08823848354563869</v>
+        <v>0.0882603220534751</v>
       </c>
       <c r="H79" t="n">
         <v>0.518</v>
@@ -6802,7 +6802,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00132</v>
+        <v>0.0014</v>
       </c>
       <c r="M79" t="n">
         <v>0.19765</v>
@@ -6872,7 +6872,7 @@
         <v>0.02575</v>
       </c>
       <c r="G80" t="n">
-        <v>0.08823848354563869</v>
+        <v>0.0882603220534751</v>
       </c>
       <c r="H80" t="n">
         <v>0.518</v>
@@ -6883,7 +6883,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00132</v>
+        <v>0.0014</v>
       </c>
       <c r="M80" t="n">
         <v>0.19765</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.034</v>
+        <v>0.03395</v>
       </c>
       <c r="G81" t="n">
-        <v>0.162039445778944</v>
+        <v>0.162153232346392</v>
       </c>
       <c r="H81" t="n">
         <v>4.2</v>
@@ -6960,13 +6960,13 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.007</v>
+        <v>0.00725</v>
       </c>
       <c r="M81" t="n">
-        <v>0.2129</v>
+        <v>0.21304</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3114</v>
+        <v>0.31168</v>
       </c>
       <c r="O81" t="n">
         <v>1803259.6</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.034</v>
+        <v>0.03395</v>
       </c>
       <c r="G82" t="n">
-        <v>0.162039445778944</v>
+        <v>0.162153232346392</v>
       </c>
       <c r="H82" t="n">
         <v>4.2</v>
@@ -7037,13 +7037,13 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.007</v>
+        <v>0.00725</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2129</v>
+        <v>0.21304</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3114</v>
+        <v>0.31168</v>
       </c>
       <c r="O82" t="n">
         <v>1803259.6</v>
@@ -7415,7 +7415,7 @@
         <v>0.595</v>
       </c>
       <c r="G87" t="n">
-        <v>1.14498319969867</v>
+        <v>1.14479912758845</v>
       </c>
       <c r="H87" t="n">
         <v>4.7</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.0019</v>
+        <v>0.00205</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0506336599221691</v>
+        <v>0.0507359237513527</v>
       </c>
       <c r="H94" t="n">
         <v>2.69055740572037</v>
@@ -8009,13 +8009,13 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00197</v>
+        <v>0.00216</v>
       </c>
       <c r="M94" t="n">
-        <v>0.00586</v>
+        <v>0.00608</v>
       </c>
       <c r="N94" t="n">
-        <v>0.00925</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="O94" t="n">
         <v>1803259.6</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.0019</v>
+        <v>0.00205</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0506336599221691</v>
+        <v>0.0507359237513527</v>
       </c>
       <c r="H95" t="n">
         <v>2.69055740572037</v>
@@ -8090,13 +8090,13 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00197</v>
+        <v>0.00216</v>
       </c>
       <c r="M95" t="n">
-        <v>0.00586</v>
+        <v>0.00608</v>
       </c>
       <c r="N95" t="n">
-        <v>0.00925</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="O95" t="n">
         <v>1803259.6</v>
@@ -8160,7 +8160,7 @@
         <v>0.0388</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0947652204191797</v>
+        <v>0.0947933833654773</v>
       </c>
       <c r="H96" t="n">
         <v>0.518</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00184</v>
+        <v>0.00193</v>
       </c>
       <c r="M96" t="n">
         <v>0.19765</v>
@@ -8241,7 +8241,7 @@
         <v>0.0388</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0947652204191797</v>
+        <v>0.0947933833654773</v>
       </c>
       <c r="H97" t="n">
         <v>0.518</v>
@@ -8252,7 +8252,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00184</v>
+        <v>0.00193</v>
       </c>
       <c r="M97" t="n">
         <v>0.19765</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.045</v>
+        <v>0.04515</v>
       </c>
       <c r="G98" t="n">
-        <v>0.168726149839937</v>
+        <v>0.168811083777165</v>
       </c>
       <c r="H98" t="n">
         <v>4.2</v>
@@ -8329,10 +8329,10 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.0081</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2129</v>
+        <v>0.21304</v>
       </c>
       <c r="N98" t="n">
         <v>0.2355</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.045</v>
+        <v>0.04515</v>
       </c>
       <c r="G99" t="n">
-        <v>0.168726149839937</v>
+        <v>0.168811083777165</v>
       </c>
       <c r="H99" t="n">
         <v>4.2</v>
@@ -8406,10 +8406,10 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.0081</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2129</v>
+        <v>0.21304</v>
       </c>
       <c r="N99" t="n">
         <v>0.2355</v>
@@ -8784,7 +8784,7 @@
         <v>0.575</v>
       </c>
       <c r="G104" t="n">
-        <v>1.04036846124872</v>
+        <v>1.04019146883505</v>
       </c>
       <c r="H104" t="n">
         <v>4.7</v>
@@ -9364,27 +9364,27 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00236</v>
+        <v>0.0025</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0517387648278</v>
+        <v>0.0518810655464012</v>
       </c>
       <c r="H111" t="n">
         <v>2.69055740572037</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02005</v>
+        <v>0.02039</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00352</v>
+        <v>0.00375</v>
       </c>
       <c r="M111" t="n">
-        <v>0.009169999999999999</v>
+        <v>0.00949</v>
       </c>
       <c r="N111" t="n">
-        <v>0.01216</v>
+        <v>0.0124</v>
       </c>
       <c r="O111" t="n">
         <v>1803259.6</v>
@@ -9445,27 +9445,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00236</v>
+        <v>0.0025</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0517387648278</v>
+        <v>0.0518810655464012</v>
       </c>
       <c r="H112" t="n">
         <v>2.69055740572037</v>
       </c>
       <c r="I112" t="n">
-        <v>0.02005</v>
+        <v>0.02039</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00352</v>
+        <v>0.00375</v>
       </c>
       <c r="M112" t="n">
-        <v>0.009169999999999999</v>
+        <v>0.00949</v>
       </c>
       <c r="N112" t="n">
-        <v>0.01216</v>
+        <v>0.0124</v>
       </c>
       <c r="O112" t="n">
         <v>1803259.6</v>
@@ -9529,7 +9529,7 @@
         <v>0.0582</v>
       </c>
       <c r="G113" t="n">
-        <v>0.105673562307601</v>
+        <v>0.105719394508014</v>
       </c>
       <c r="H113" t="n">
         <v>0.518</v>
@@ -9540,7 +9540,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.00184</v>
+        <v>0.00193</v>
       </c>
       <c r="M113" t="n">
         <v>0.207</v>
@@ -9610,7 +9610,7 @@
         <v>0.0582</v>
       </c>
       <c r="G114" t="n">
-        <v>0.105673562307601</v>
+        <v>0.105719394508014</v>
       </c>
       <c r="H114" t="n">
         <v>0.518</v>
@@ -9621,7 +9621,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.00184</v>
+        <v>0.00193</v>
       </c>
       <c r="M114" t="n">
         <v>0.207</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.0605</v>
+        <v>0.0607</v>
       </c>
       <c r="G115" t="n">
-        <v>0.179918260117953</v>
+        <v>0.180042623816581</v>
       </c>
       <c r="H115" t="n">
         <v>4.2</v>
@@ -9698,10 +9698,10 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.008449999999999999</v>
+        <v>0.00882</v>
       </c>
       <c r="M115" t="n">
-        <v>0.2222</v>
+        <v>0.22234</v>
       </c>
       <c r="N115" t="n">
         <v>0.355</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.0605</v>
+        <v>0.0607</v>
       </c>
       <c r="G116" t="n">
-        <v>0.179918260117953</v>
+        <v>0.180042623816581</v>
       </c>
       <c r="H116" t="n">
         <v>4.2</v>
@@ -9775,10 +9775,10 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.008449999999999999</v>
+        <v>0.00882</v>
       </c>
       <c r="M116" t="n">
-        <v>0.2222</v>
+        <v>0.22234</v>
       </c>
       <c r="N116" t="n">
         <v>0.355</v>
@@ -10733,27 +10733,27 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00325</v>
+        <v>0.0034</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0570170241326213</v>
+        <v>0.0571623403784975</v>
       </c>
       <c r="H128" t="n">
         <v>2.69055740572037</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0338</v>
+        <v>0.03385</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00478</v>
+        <v>0.00488</v>
       </c>
       <c r="M128" t="n">
-        <v>0.01054</v>
+        <v>0.01063</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02056</v>
+        <v>0.02065</v>
       </c>
       <c r="O128" t="n">
         <v>1803259.6</v>
@@ -10814,27 +10814,27 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00325</v>
+        <v>0.0034</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0570170241326213</v>
+        <v>0.0571623403784975</v>
       </c>
       <c r="H129" t="n">
         <v>2.69055740572037</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0338</v>
+        <v>0.03385</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00478</v>
+        <v>0.00488</v>
       </c>
       <c r="M129" t="n">
-        <v>0.01054</v>
+        <v>0.01063</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02056</v>
+        <v>0.02065</v>
       </c>
       <c r="O129" t="n">
         <v>1803259.6</v>
@@ -10898,7 +10898,7 @@
         <v>0.06</v>
       </c>
       <c r="G130" t="n">
-        <v>0.106905561817377</v>
+        <v>0.106960994625915</v>
       </c>
       <c r="H130" t="n">
         <v>0.518</v>
@@ -10909,7 +10909,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.00265</v>
+        <v>0.00278</v>
       </c>
       <c r="M130" t="n">
         <v>0.21682</v>
@@ -10979,7 +10979,7 @@
         <v>0.06</v>
       </c>
       <c r="G131" t="n">
-        <v>0.106905561817377</v>
+        <v>0.106960994625915</v>
       </c>
       <c r="H131" t="n">
         <v>0.518</v>
@@ -10990,7 +10990,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.00265</v>
+        <v>0.00278</v>
       </c>
       <c r="M131" t="n">
         <v>0.21682</v>
@@ -11056,7 +11056,7 @@
         <v>0.062</v>
       </c>
       <c r="G132" t="n">
-        <v>0.182819099575835</v>
+        <v>0.182886183540076</v>
       </c>
       <c r="H132" t="n">
         <v>4.2</v>
@@ -11067,7 +11067,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.008449999999999999</v>
+        <v>0.00882</v>
       </c>
       <c r="M132" t="n">
         <v>0.225</v>
@@ -11133,7 +11133,7 @@
         <v>0.062</v>
       </c>
       <c r="G133" t="n">
-        <v>0.182819099575835</v>
+        <v>0.182886183540076</v>
       </c>
       <c r="H133" t="n">
         <v>4.2</v>
@@ -11144,7 +11144,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.008449999999999999</v>
+        <v>0.00882</v>
       </c>
       <c r="M133" t="n">
         <v>0.225</v>
@@ -12102,27 +12102,27 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00526</v>
+        <v>0.00527</v>
       </c>
       <c r="G145" t="n">
-        <v>0.007831654500883099</v>
+        <v>0.0079519703367186</v>
       </c>
       <c r="H145" t="n">
         <v>0.0430416717491898</v>
       </c>
       <c r="I145" t="n">
-        <v>0.03311</v>
+        <v>0.03318</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00582</v>
+        <v>0.00604</v>
       </c>
       <c r="M145" t="n">
-        <v>0.01117</v>
+        <v>0.01141</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02039</v>
+        <v>0.02045</v>
       </c>
       <c r="O145" t="n">
         <v>1803259.6</v>
@@ -12183,27 +12183,27 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00526</v>
+        <v>0.00527</v>
       </c>
       <c r="G146" t="n">
-        <v>0.007831654500883099</v>
+        <v>0.0079519703367186</v>
       </c>
       <c r="H146" t="n">
         <v>0.0430416717491898</v>
       </c>
       <c r="I146" t="n">
-        <v>0.03311</v>
+        <v>0.03318</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00582</v>
+        <v>0.00604</v>
       </c>
       <c r="M146" t="n">
-        <v>0.01117</v>
+        <v>0.01141</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02039</v>
+        <v>0.02045</v>
       </c>
       <c r="O146" t="n">
         <v>1803259.6</v>
@@ -12267,7 +12267,7 @@
         <v>0.037</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0958279872573168</v>
+        <v>0.0958785171046749</v>
       </c>
       <c r="H147" t="n">
         <v>0.518</v>
@@ -12278,7 +12278,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00308</v>
+        <v>0.00327</v>
       </c>
       <c r="M147" t="n">
         <v>0.20605</v>
@@ -12348,7 +12348,7 @@
         <v>0.037</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0958279872573168</v>
+        <v>0.0958785171046749</v>
       </c>
       <c r="H148" t="n">
         <v>0.518</v>
@@ -12359,7 +12359,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.00308</v>
+        <v>0.00327</v>
       </c>
       <c r="M148" t="n">
         <v>0.20605</v>
@@ -12425,7 +12425,7 @@
         <v>0.041</v>
       </c>
       <c r="G149" t="n">
-        <v>0.103656421361704</v>
+        <v>0.103682432003582</v>
       </c>
       <c r="H149" t="n">
         <v>0.535</v>
@@ -12436,7 +12436,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.01229</v>
+        <v>0.01259</v>
       </c>
       <c r="M149" t="n">
         <v>0.2144</v>
@@ -12502,7 +12502,7 @@
         <v>0.041</v>
       </c>
       <c r="G150" t="n">
-        <v>0.103656421361704</v>
+        <v>0.103682432003582</v>
       </c>
       <c r="H150" t="n">
         <v>0.535</v>
@@ -12513,7 +12513,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.01229</v>
+        <v>0.01259</v>
       </c>
       <c r="M150" t="n">
         <v>0.2144</v>
@@ -13471,27 +13471,27 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00588</v>
+        <v>0.0061</v>
       </c>
       <c r="G162" t="n">
-        <v>0.008682047023120599</v>
+        <v>0.008769529960989699</v>
       </c>
       <c r="H162" t="n">
         <v>0.0430416717491898</v>
       </c>
       <c r="I162" t="n">
-        <v>0.0338</v>
+        <v>0.03385</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00588</v>
+        <v>0.0061</v>
       </c>
       <c r="M162" t="n">
-        <v>0.01313</v>
+        <v>0.01324</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02183</v>
+        <v>0.02192</v>
       </c>
       <c r="O162" t="n">
         <v>1803259.6</v>
@@ -13552,27 +13552,27 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00588</v>
+        <v>0.0061</v>
       </c>
       <c r="G163" t="n">
-        <v>0.008682047023120599</v>
+        <v>0.008769529960989699</v>
       </c>
       <c r="H163" t="n">
         <v>0.0430416717491898</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0338</v>
+        <v>0.03385</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00588</v>
+        <v>0.0061</v>
       </c>
       <c r="M163" t="n">
-        <v>0.01313</v>
+        <v>0.01324</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02183</v>
+        <v>0.02192</v>
       </c>
       <c r="O163" t="n">
         <v>1803259.6</v>
@@ -13636,7 +13636,7 @@
         <v>0.0275</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0845572362025175</v>
+        <v>0.0846131685963514</v>
       </c>
       <c r="H164" t="n">
         <v>0.358</v>
@@ -13647,7 +13647,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
-        <v>0.00338</v>
+        <v>0.00361</v>
       </c>
       <c r="M164" t="n">
         <v>0.1846</v>
@@ -13717,7 +13717,7 @@
         <v>0.0275</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0845572362025175</v>
+        <v>0.0846131685963514</v>
       </c>
       <c r="H165" t="n">
         <v>0.358</v>
@@ -13728,7 +13728,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00338</v>
+        <v>0.00361</v>
       </c>
       <c r="M165" t="n">
         <v>0.1846</v>
@@ -13794,7 +13794,7 @@
         <v>0.0375</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0925298079369055</v>
+        <v>0.09255626703812669</v>
       </c>
       <c r="H166" t="n">
         <v>0.39</v>
@@ -13871,7 +13871,7 @@
         <v>0.0375</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0925298079369055</v>
+        <v>0.09255626703812669</v>
       </c>
       <c r="H167" t="n">
         <v>0.39</v>
@@ -14230,6 +14230,1375 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.21384615384615</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2.836</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.0101896551724138</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.01872</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0101896551724138</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.01872</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="G175" t="n">
+        <v>567.293103448276</v>
+      </c>
+      <c r="H175" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I175" t="n">
+        <v>598</v>
+      </c>
+      <c r="J175" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K175" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L175" t="n">
+        <v>58</v>
+      </c>
+      <c r="M175" t="n">
+        <v>174.08</v>
+      </c>
+      <c r="N175" t="n">
+        <v>427</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="G176" t="n">
+        <v>567.293103448276</v>
+      </c>
+      <c r="H176" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I176" t="n">
+        <v>598</v>
+      </c>
+      <c r="J176" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K176" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L176" t="n">
+        <v>58</v>
+      </c>
+      <c r="M176" t="n">
+        <v>174.08</v>
+      </c>
+      <c r="N176" t="n">
+        <v>427</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="G177" t="n">
+        <v>567.293103448276</v>
+      </c>
+      <c r="H177" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I177" t="n">
+        <v>598</v>
+      </c>
+      <c r="J177" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K177" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L177" t="n">
+        <v>58</v>
+      </c>
+      <c r="M177" t="n">
+        <v>174.08</v>
+      </c>
+      <c r="N177" t="n">
+        <v>427</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="G178" t="n">
+        <v>567.293103448276</v>
+      </c>
+      <c r="H178" t="n">
+        <v>17230</v>
+      </c>
+      <c r="I178" t="n">
+        <v>598</v>
+      </c>
+      <c r="J178" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K178" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L178" t="n">
+        <v>58</v>
+      </c>
+      <c r="M178" t="n">
+        <v>174.08</v>
+      </c>
+      <c r="N178" t="n">
+        <v>427</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.00646</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.008760598669734899</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0430416717491898</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.03318</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.01298</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.02185</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.00646</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.008760598669734899</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.0430416717491898</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.03318</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.01298</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.02185</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.09230482930807329</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.22652</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.30498</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.09230482930807329</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.22652</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.30498</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.04575</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.100180903489051</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.3342</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0.01366</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.22932</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.31326</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.04575</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.100180903489051</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.3342</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>0.01366</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.22932</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.31326</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P184" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.261034482758621</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.3628</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P185" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.261034482758621</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.3628</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P186" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0663965517241379</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.0988</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P187" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0663965517241379</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.0988</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
+++ b/state_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +663,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1.3</v>
@@ -675,7 +678,7 @@
         <v>4.14415</v>
       </c>
       <c r="L2">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M2">
         <v>2.438</v>
@@ -690,19 +693,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -719,13 +722,13 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0.008999999999999999</v>
       </c>
       <c r="G3">
-        <v>0.0895524396075168</v>
+        <v>0.089553573824749</v>
       </c>
       <c r="H3">
         <v>4.671</v>
@@ -749,19 +752,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -778,13 +781,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0.008999999999999999</v>
       </c>
       <c r="G4">
-        <v>0.0895524396075168</v>
+        <v>0.089553573824749</v>
       </c>
       <c r="H4">
         <v>4.671</v>
@@ -808,19 +811,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -837,13 +840,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>179</v>
       </c>
       <c r="G5">
-        <v>2055.33898305085</v>
+        <v>2055.33728813559</v>
       </c>
       <c r="H5">
         <v>68667</v>
@@ -858,10 +861,10 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L5">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M5">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N5">
         <v>2907.78</v>
@@ -873,19 +876,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -902,13 +905,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>179</v>
       </c>
       <c r="G6">
-        <v>2055.33898305085</v>
+        <v>2055.33728813559</v>
       </c>
       <c r="H6">
         <v>68667</v>
@@ -923,10 +926,10 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L6">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M6">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N6">
         <v>2907.78</v>
@@ -938,19 +941,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -967,13 +970,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>179</v>
       </c>
       <c r="G7">
-        <v>2055.33898305085</v>
+        <v>2055.33728813559</v>
       </c>
       <c r="H7">
         <v>68667</v>
@@ -988,10 +991,10 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L7">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M7">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N7">
         <v>2907.78</v>
@@ -1003,19 +1006,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1032,13 +1035,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>179</v>
       </c>
       <c r="G8">
-        <v>2055.33898305085</v>
+        <v>2055.33728813559</v>
       </c>
       <c r="H8">
         <v>68667</v>
@@ -1053,10 +1056,10 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L8">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M8">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N8">
         <v>2907.78</v>
@@ -1068,19 +1071,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1097,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0.00554</v>
       </c>
       <c r="G9">
-        <v>0.0241634252915708</v>
+        <v>0.0241664396724288</v>
       </c>
       <c r="H9">
         <v>0.669147959824046</v>
@@ -1127,19 +1130,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1156,13 +1159,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0.00554</v>
       </c>
       <c r="G10">
-        <v>0.0241634252915708</v>
+        <v>0.0241664396724288</v>
       </c>
       <c r="H10">
         <v>0.669147959824046</v>
@@ -1186,19 +1189,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1215,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0.08599999999999999</v>
       </c>
       <c r="G11">
-        <v>0.40997512758077</v>
+        <v>0.409928324707269</v>
       </c>
       <c r="H11">
         <v>15.292</v>
@@ -1230,7 +1233,7 @@
         <v>0.3552</v>
       </c>
       <c r="L11">
-        <v>0.006</v>
+        <v>0.00805</v>
       </c>
       <c r="M11">
         <v>0.21419</v>
@@ -1245,19 +1248,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1274,13 +1277,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0.08599999999999999</v>
       </c>
       <c r="G12">
-        <v>0.40997512758077</v>
+        <v>0.409928324707269</v>
       </c>
       <c r="H12">
         <v>15.292</v>
@@ -1289,7 +1292,7 @@
         <v>0.3552</v>
       </c>
       <c r="L12">
-        <v>0.006</v>
+        <v>0.00805</v>
       </c>
       <c r="M12">
         <v>0.21419</v>
@@ -1304,19 +1307,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1330,13 +1333,13 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0.109</v>
       </c>
       <c r="G13">
-        <v>0.419305068704832</v>
+        <v>0.419305288412897</v>
       </c>
       <c r="H13">
         <v>17.52</v>
@@ -1345,7 +1348,7 @@
         <v>0.46835</v>
       </c>
       <c r="L13">
-        <v>0.01525</v>
+        <v>0.0156</v>
       </c>
       <c r="M13">
         <v>0.2467</v>
@@ -1360,19 +1363,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1386,13 +1389,13 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0.109</v>
       </c>
       <c r="G14">
-        <v>0.419305068704832</v>
+        <v>0.419305288412897</v>
       </c>
       <c r="H14">
         <v>17.52</v>
@@ -1401,7 +1404,7 @@
         <v>0.46835</v>
       </c>
       <c r="L14">
-        <v>0.01525</v>
+        <v>0.0156</v>
       </c>
       <c r="M14">
         <v>0.2467</v>
@@ -1416,19 +1419,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1442,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>0.228</v>
@@ -1457,7 +1460,7 @@
         <v>1.5815</v>
       </c>
       <c r="L15">
-        <v>0.1325</v>
+        <v>0.1375</v>
       </c>
       <c r="M15">
         <v>0.57</v>
@@ -1472,19 +1475,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1498,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>0.228</v>
@@ -1513,7 +1516,7 @@
         <v>1.5815</v>
       </c>
       <c r="L16">
-        <v>0.1325</v>
+        <v>0.1375</v>
       </c>
       <c r="M16">
         <v>0.57</v>
@@ -1528,19 +1531,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1554,13 +1557,13 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>0.025</v>
       </c>
       <c r="G17">
-        <v>0.165093418542238</v>
+        <v>0.165093486507646</v>
       </c>
       <c r="H17">
         <v>4.84</v>
@@ -1584,19 +1587,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1610,13 +1613,13 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>0.025</v>
       </c>
       <c r="G18">
-        <v>0.165093418542238</v>
+        <v>0.165093486507646</v>
       </c>
       <c r="H18">
         <v>4.84</v>
@@ -1640,19 +1643,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1669,7 +1672,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>1.45</v>
@@ -1684,7 +1687,7 @@
         <v>4.14415</v>
       </c>
       <c r="L19">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="M19">
         <v>2.557</v>
@@ -1699,19 +1702,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1728,13 +1731,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>0.008999999999999999</v>
       </c>
       <c r="G20">
-        <v>0.0894043896717861</v>
+        <v>0.08940406626946459</v>
       </c>
       <c r="H20">
         <v>4.671</v>
@@ -1743,7 +1746,7 @@
         <v>0.02555</v>
       </c>
       <c r="L20">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M20">
         <v>0.014</v>
@@ -1758,19 +1761,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1787,13 +1790,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>0.008999999999999999</v>
       </c>
       <c r="G21">
-        <v>0.0894043896717861</v>
+        <v>0.08940406626946459</v>
       </c>
       <c r="H21">
         <v>4.671</v>
@@ -1802,7 +1805,7 @@
         <v>0.02555</v>
       </c>
       <c r="L21">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M21">
         <v>0.014</v>
@@ -1817,19 +1820,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1846,13 +1849,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>140</v>
       </c>
       <c r="G22">
-        <v>1749.42372881356</v>
+        <v>1749.42203389831</v>
       </c>
       <c r="H22">
         <v>68667</v>
@@ -1867,10 +1870,10 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L22">
-        <v>82</v>
+        <v>124.5</v>
       </c>
       <c r="M22">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N22">
         <v>2670.66</v>
@@ -1882,19 +1885,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1911,13 +1914,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>140</v>
       </c>
       <c r="G23">
-        <v>1749.42372881356</v>
+        <v>1749.42203389831</v>
       </c>
       <c r="H23">
         <v>68667</v>
@@ -1932,10 +1935,10 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L23">
-        <v>82</v>
+        <v>124.5</v>
       </c>
       <c r="M23">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N23">
         <v>2670.66</v>
@@ -1947,19 +1950,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1976,13 +1979,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>140</v>
       </c>
       <c r="G24">
-        <v>1749.42372881356</v>
+        <v>1749.42203389831</v>
       </c>
       <c r="H24">
         <v>68667</v>
@@ -1997,10 +2000,10 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L24">
-        <v>82</v>
+        <v>124.5</v>
       </c>
       <c r="M24">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N24">
         <v>2670.66</v>
@@ -2012,19 +2015,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2041,13 +2044,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>140</v>
       </c>
       <c r="G25">
-        <v>1749.42372881356</v>
+        <v>1749.42203389831</v>
       </c>
       <c r="H25">
         <v>68667</v>
@@ -2062,10 +2065,10 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L25">
-        <v>82</v>
+        <v>124.5</v>
       </c>
       <c r="M25">
-        <v>896.85</v>
+        <v>896.797</v>
       </c>
       <c r="N25">
         <v>2670.66</v>
@@ -2077,19 +2080,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2106,13 +2109,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0.00624</v>
       </c>
       <c r="G26">
-        <v>0.0248356472655227</v>
+        <v>0.0248371027257861</v>
       </c>
       <c r="H26">
         <v>0.669147959824046</v>
@@ -2121,7 +2124,7 @@
         <v>0.07432999999999999</v>
       </c>
       <c r="L26">
-        <v>0.00394</v>
+        <v>0.00464</v>
       </c>
       <c r="M26">
         <v>0.02312</v>
@@ -2136,19 +2139,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2165,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0.00624</v>
       </c>
       <c r="G27">
-        <v>0.0248356472655227</v>
+        <v>0.0248371027257861</v>
       </c>
       <c r="H27">
         <v>0.669147959824046</v>
@@ -2180,7 +2183,7 @@
         <v>0.07432999999999999</v>
       </c>
       <c r="L27">
-        <v>0.00394</v>
+        <v>0.00464</v>
       </c>
       <c r="M27">
         <v>0.02312</v>
@@ -2195,19 +2198,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2224,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0.044</v>
       </c>
       <c r="G28">
-        <v>0.345628495787419</v>
+        <v>0.345521828994172</v>
       </c>
       <c r="H28">
         <v>15.292</v>
@@ -2239,7 +2242,7 @@
         <v>0.34133</v>
       </c>
       <c r="L28">
-        <v>0.002</v>
+        <v>0.00635</v>
       </c>
       <c r="M28">
         <v>0.20235</v>
@@ -2254,19 +2257,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2283,13 +2286,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0.044</v>
       </c>
       <c r="G29">
-        <v>0.345628495787419</v>
+        <v>0.345521828994172</v>
       </c>
       <c r="H29">
         <v>15.292</v>
@@ -2298,7 +2301,7 @@
         <v>0.34133</v>
       </c>
       <c r="L29">
-        <v>0.002</v>
+        <v>0.00635</v>
       </c>
       <c r="M29">
         <v>0.20235</v>
@@ -2313,19 +2316,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2339,7 +2342,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>0.0505</v>
@@ -2354,7 +2357,7 @@
         <v>0.42083</v>
       </c>
       <c r="L30">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="M30">
         <v>0.22288</v>
@@ -2369,19 +2372,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2395,7 +2398,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>0.0505</v>
@@ -2410,7 +2413,7 @@
         <v>0.42083</v>
       </c>
       <c r="L31">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="M31">
         <v>0.22288</v>
@@ -2425,19 +2428,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2451,7 +2454,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>0.22</v>
@@ -2466,7 +2469,7 @@
         <v>1.5815</v>
       </c>
       <c r="L32">
-        <v>0.1375</v>
+        <v>0.15</v>
       </c>
       <c r="M32">
         <v>0.49</v>
@@ -2481,19 +2484,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2507,7 +2510,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>0.22</v>
@@ -2522,7 +2525,7 @@
         <v>1.5815</v>
       </c>
       <c r="L33">
-        <v>0.1375</v>
+        <v>0.15</v>
       </c>
       <c r="M33">
         <v>0.49</v>
@@ -2537,19 +2540,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2563,13 +2566,13 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>0.023</v>
       </c>
       <c r="G34">
-        <v>0.161923927016815</v>
+        <v>0.161923994982223</v>
       </c>
       <c r="H34">
         <v>4.84</v>
@@ -2578,7 +2581,7 @@
         <v>0.7282999999999999</v>
       </c>
       <c r="L34">
-        <v>0.0155</v>
+        <v>0.016</v>
       </c>
       <c r="M34">
         <v>0.07635</v>
@@ -2593,19 +2596,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2619,13 +2622,13 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0.023</v>
       </c>
       <c r="G35">
-        <v>0.161923927016815</v>
+        <v>0.161923994982223</v>
       </c>
       <c r="H35">
         <v>4.84</v>
@@ -2634,7 +2637,7 @@
         <v>0.7282999999999999</v>
       </c>
       <c r="L35">
-        <v>0.0155</v>
+        <v>0.016</v>
       </c>
       <c r="M35">
         <v>0.07635</v>
@@ -2649,19 +2652,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2678,13 +2681,13 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>1.5</v>
       </c>
       <c r="G36">
-        <v>1.58516562808149</v>
+        <v>1.58509520931793</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -2693,7 +2696,7 @@
         <v>4.37</v>
       </c>
       <c r="L36">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="M36">
         <v>2.836</v>
@@ -2708,19 +2711,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2737,13 +2740,13 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>0.008999999999999999</v>
       </c>
       <c r="G37">
-        <v>0.010997649843923</v>
+        <v>0.0109973318316402</v>
       </c>
       <c r="H37">
         <v>0.07199999999999999</v>
@@ -2752,7 +2755,7 @@
         <v>0.024</v>
       </c>
       <c r="L37">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="M37">
         <v>0.0133</v>
@@ -2767,19 +2770,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2796,13 +2799,13 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>0.008999999999999999</v>
       </c>
       <c r="G38">
-        <v>0.010997649843923</v>
+        <v>0.0109973318316402</v>
       </c>
       <c r="H38">
         <v>0.07199999999999999</v>
@@ -2811,7 +2814,7 @@
         <v>0.024</v>
       </c>
       <c r="L38">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="M38">
         <v>0.0133</v>
@@ -2826,19 +2829,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2855,7 +2858,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>96.5</v>
@@ -2876,7 +2879,7 @@
         <v>35</v>
       </c>
       <c r="L39">
-        <v>67.5</v>
+        <v>78</v>
       </c>
       <c r="M39">
         <v>661.1</v>
@@ -2891,19 +2894,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2920,7 +2923,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>96.5</v>
@@ -2941,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="L40">
-        <v>67.5</v>
+        <v>78</v>
       </c>
       <c r="M40">
         <v>661.1</v>
@@ -2956,19 +2959,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2985,7 +2988,7 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>96.5</v>
@@ -3006,7 +3009,7 @@
         <v>35</v>
       </c>
       <c r="L41">
-        <v>67.5</v>
+        <v>78</v>
       </c>
       <c r="M41">
         <v>661.1</v>
@@ -3021,19 +3024,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3050,7 +3053,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>96.5</v>
@@ -3071,7 +3074,7 @@
         <v>35</v>
       </c>
       <c r="L42">
-        <v>67.5</v>
+        <v>78</v>
       </c>
       <c r="M42">
         <v>661.1</v>
@@ -3086,19 +3089,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3115,13 +3118,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>0.00394</v>
       </c>
       <c r="G43">
-        <v>0.0103306169747434</v>
+        <v>0.0103368319186777</v>
       </c>
       <c r="H43">
         <v>0.09110863162401781</v>
@@ -3145,19 +3148,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3174,13 +3177,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>0.00394</v>
       </c>
       <c r="G44">
-        <v>0.0103306169747434</v>
+        <v>0.0103368319186777</v>
       </c>
       <c r="H44">
         <v>0.09110863162401781</v>
@@ -3204,19 +3207,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3233,13 +3236,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0.0319</v>
       </c>
       <c r="G45">
-        <v>0.0859406680822711</v>
+        <v>0.0858443667431017</v>
       </c>
       <c r="H45">
         <v>0.511</v>
@@ -3248,7 +3251,7 @@
         <v>0.2872</v>
       </c>
       <c r="L45">
-        <v>0.0017</v>
+        <v>0.001</v>
       </c>
       <c r="M45">
         <v>0.20045</v>
@@ -3263,19 +3266,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3292,13 +3295,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>0.0319</v>
       </c>
       <c r="G46">
-        <v>0.0859406680822711</v>
+        <v>0.0858443667431017</v>
       </c>
       <c r="H46">
         <v>0.511</v>
@@ -3307,7 +3310,7 @@
         <v>0.2872</v>
       </c>
       <c r="L46">
-        <v>0.0017</v>
+        <v>0.001</v>
       </c>
       <c r="M46">
         <v>0.20045</v>
@@ -3322,19 +3325,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3348,13 +3351,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0.0422</v>
       </c>
       <c r="G47">
-        <v>0.0992945433355064</v>
+        <v>0.0992938472805726</v>
       </c>
       <c r="H47">
         <v>0.535</v>
@@ -3363,7 +3366,7 @@
         <v>0.3007</v>
       </c>
       <c r="L47">
-        <v>0.0106</v>
+        <v>0.012</v>
       </c>
       <c r="M47">
         <v>0.21484</v>
@@ -3378,19 +3381,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3404,13 +3407,13 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>0.0422</v>
       </c>
       <c r="G48">
-        <v>0.0992945433355064</v>
+        <v>0.0992938472805726</v>
       </c>
       <c r="H48">
         <v>0.535</v>
@@ -3419,7 +3422,7 @@
         <v>0.3007</v>
       </c>
       <c r="L48">
-        <v>0.0106</v>
+        <v>0.012</v>
       </c>
       <c r="M48">
         <v>0.21484</v>
@@ -3434,19 +3437,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3460,7 +3463,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>0.217</v>
@@ -3475,7 +3478,7 @@
         <v>1.235</v>
       </c>
       <c r="L49">
-        <v>0.13</v>
+        <v>0.1325</v>
       </c>
       <c r="M49">
         <v>0.469</v>
@@ -3490,19 +3493,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3516,7 +3519,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>0.217</v>
@@ -3531,7 +3534,7 @@
         <v>1.235</v>
       </c>
       <c r="L50">
-        <v>0.13</v>
+        <v>0.1325</v>
       </c>
       <c r="M50">
         <v>0.469</v>
@@ -3546,19 +3549,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3572,13 +3575,13 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>0.022</v>
       </c>
       <c r="G51">
-        <v>0.066008528233201</v>
+        <v>0.0660085950658523</v>
       </c>
       <c r="H51">
         <v>0.794</v>
@@ -3587,7 +3590,7 @@
         <v>0.3195</v>
       </c>
       <c r="L51">
-        <v>0.014</v>
+        <v>0.0145</v>
       </c>
       <c r="M51">
         <v>0.0755</v>
@@ -3602,19 +3605,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3628,13 +3631,13 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>0.022</v>
       </c>
       <c r="G52">
-        <v>0.066008528233201</v>
+        <v>0.0660085950658523</v>
       </c>
       <c r="H52">
         <v>0.794</v>
@@ -3643,7 +3646,7 @@
         <v>0.3195</v>
       </c>
       <c r="L52">
-        <v>0.014</v>
+        <v>0.0145</v>
       </c>
       <c r="M52">
         <v>0.0755</v>
@@ -3658,19 +3661,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3687,13 +3690,13 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>1.55</v>
       </c>
       <c r="G53">
-        <v>1.52355226339197</v>
+        <v>1.52348933598624</v>
       </c>
       <c r="H53">
         <v>4.7</v>
@@ -3702,7 +3705,7 @@
         <v>4.1995</v>
       </c>
       <c r="L53">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="M53">
         <v>2.851</v>
@@ -3717,19 +3720,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3746,13 +3749,13 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>0.008999999999999999</v>
       </c>
       <c r="G54">
-        <v>0.0115805156396723</v>
+        <v>0.0115802754909117</v>
       </c>
       <c r="H54">
         <v>0.07199999999999999</v>
@@ -3761,7 +3764,7 @@
         <v>0.024</v>
       </c>
       <c r="L54">
-        <v>0.007</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M54">
         <v>0.017</v>
@@ -3776,19 +3779,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3805,13 +3808,13 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <v>0.008999999999999999</v>
       </c>
       <c r="G55">
-        <v>0.0115805156396723</v>
+        <v>0.0115802754909117</v>
       </c>
       <c r="H55">
         <v>0.07199999999999999</v>
@@ -3820,7 +3823,7 @@
         <v>0.024</v>
       </c>
       <c r="L55">
-        <v>0.007</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M55">
         <v>0.017</v>
@@ -3835,19 +3838,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3864,7 +3867,7 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>86.5</v>
@@ -3885,7 +3888,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L56">
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="M56">
         <v>768.8</v>
@@ -3900,19 +3903,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3929,7 +3932,7 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>86.5</v>
@@ -3950,7 +3953,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L57">
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="M57">
         <v>768.8</v>
@@ -3965,19 +3968,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3994,7 +3997,7 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>86.5</v>
@@ -4015,7 +4018,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L58">
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="M58">
         <v>768.8</v>
@@ -4030,19 +4033,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4059,7 +4062,7 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>86.5</v>
@@ -4080,7 +4083,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="L59">
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="M59">
         <v>768.8</v>
@@ -4095,19 +4098,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4124,13 +4127,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60">
-        <v>0.0021</v>
+        <v>0.00218</v>
       </c>
       <c r="G60">
-        <v>0.0548875730316519</v>
+        <v>0.0549125076999121</v>
       </c>
       <c r="H60">
         <v>2.69055740572037</v>
@@ -4139,7 +4142,7 @@
         <v>0.04869</v>
       </c>
       <c r="L60">
-        <v>0.00205</v>
+        <v>0.0022</v>
       </c>
       <c r="M60">
         <v>0.01759</v>
@@ -4154,19 +4157,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4183,13 +4186,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61">
-        <v>0.0021</v>
+        <v>0.00218</v>
       </c>
       <c r="G61">
-        <v>0.0548875730316519</v>
+        <v>0.0549125076999121</v>
       </c>
       <c r="H61">
         <v>2.69055740572037</v>
@@ -4198,7 +4201,7 @@
         <v>0.04869</v>
       </c>
       <c r="L61">
-        <v>0.00205</v>
+        <v>0.0022</v>
       </c>
       <c r="M61">
         <v>0.01759</v>
@@ -4213,19 +4216,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4242,13 +4245,13 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>0.022</v>
       </c>
       <c r="G62">
-        <v>0.0795426138789542</v>
+        <v>0.0794581481948132</v>
       </c>
       <c r="H62">
         <v>0.511</v>
@@ -4257,7 +4260,7 @@
         <v>0.3382</v>
       </c>
       <c r="L62">
-        <v>0.00118</v>
+        <v>0.00103</v>
       </c>
       <c r="M62">
         <v>0.1827</v>
@@ -4272,19 +4275,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4301,13 +4304,13 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>0.022</v>
       </c>
       <c r="G63">
-        <v>0.0795426138789542</v>
+        <v>0.0794581481948132</v>
       </c>
       <c r="H63">
         <v>0.511</v>
@@ -4316,7 +4319,7 @@
         <v>0.3382</v>
       </c>
       <c r="L63">
-        <v>0.00118</v>
+        <v>0.00103</v>
       </c>
       <c r="M63">
         <v>0.1827</v>
@@ -4331,19 +4334,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4357,13 +4360,13 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <v>0.03645</v>
       </c>
       <c r="G64">
-        <v>0.157503232346392</v>
+        <v>0.157507697017717</v>
       </c>
       <c r="H64">
         <v>4.2</v>
@@ -4372,7 +4375,7 @@
         <v>0.355</v>
       </c>
       <c r="L64">
-        <v>0.00725</v>
+        <v>0.00874</v>
       </c>
       <c r="M64">
         <v>0.18848</v>
@@ -4387,19 +4390,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4413,13 +4416,13 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>0.03645</v>
       </c>
       <c r="G65">
-        <v>0.157503232346392</v>
+        <v>0.157507697017717</v>
       </c>
       <c r="H65">
         <v>4.2</v>
@@ -4428,7 +4431,7 @@
         <v>0.355</v>
       </c>
       <c r="L65">
-        <v>0.00725</v>
+        <v>0.00874</v>
       </c>
       <c r="M65">
         <v>0.18848</v>
@@ -4443,19 +4446,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4469,7 +4472,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66">
         <v>0.1835</v>
@@ -4484,7 +4487,7 @@
         <v>1.35</v>
       </c>
       <c r="L66">
-        <v>0.1085</v>
+        <v>0.1195</v>
       </c>
       <c r="M66">
         <v>0.4969</v>
@@ -4499,19 +4502,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4525,7 +4528,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0.1835</v>
@@ -4540,7 +4543,7 @@
         <v>1.35</v>
       </c>
       <c r="L67">
-        <v>0.1085</v>
+        <v>0.1195</v>
       </c>
       <c r="M67">
         <v>0.4969</v>
@@ -4555,19 +4558,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4581,13 +4584,13 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <v>0.0205</v>
       </c>
       <c r="G68">
-        <v>0.0884391406312969</v>
+        <v>0.0884387808170075</v>
       </c>
       <c r="H68">
         <v>1.41</v>
@@ -4596,7 +4599,7 @@
         <v>0.5475</v>
       </c>
       <c r="L68">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M68">
         <v>0.0805</v>
@@ -4611,19 +4614,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4637,13 +4640,13 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <v>0.0205</v>
       </c>
       <c r="G69">
-        <v>0.0884391406312969</v>
+        <v>0.0884387808170075</v>
       </c>
       <c r="H69">
         <v>1.41</v>
@@ -4652,7 +4655,7 @@
         <v>0.5475</v>
       </c>
       <c r="L69">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M69">
         <v>0.0805</v>
@@ -4667,19 +4670,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4696,13 +4699,13 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70">
         <v>1.05</v>
       </c>
       <c r="G70">
-        <v>1.33419912758845</v>
+        <v>1.33413997582706</v>
       </c>
       <c r="H70">
         <v>4.7</v>
@@ -4711,7 +4714,7 @@
         <v>4.15</v>
       </c>
       <c r="L70">
-        <v>2.4</v>
+        <v>2.195</v>
       </c>
       <c r="M70">
         <v>2.5</v>
@@ -4726,19 +4729,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4755,7 +4758,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>0.008999999999999999</v>
@@ -4770,7 +4773,7 @@
         <v>0.0225</v>
       </c>
       <c r="L71">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="M71">
         <v>0.0156</v>
@@ -4785,19 +4788,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4814,7 +4817,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72">
         <v>0.008999999999999999</v>
@@ -4829,7 +4832,7 @@
         <v>0.0225</v>
       </c>
       <c r="L72">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="M72">
         <v>0.0156</v>
@@ -4844,19 +4847,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4873,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73">
         <v>64</v>
@@ -4894,7 +4897,7 @@
         <v>25</v>
       </c>
       <c r="L73">
-        <v>51</v>
+        <v>58.5</v>
       </c>
       <c r="M73">
         <v>424.1</v>
@@ -4909,19 +4912,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4938,7 +4941,7 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <v>64</v>
@@ -4959,7 +4962,7 @@
         <v>25</v>
       </c>
       <c r="L74">
-        <v>51</v>
+        <v>58.5</v>
       </c>
       <c r="M74">
         <v>424.1</v>
@@ -4974,19 +4977,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5003,7 +5006,7 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75">
         <v>64</v>
@@ -5024,7 +5027,7 @@
         <v>25</v>
       </c>
       <c r="L75">
-        <v>51</v>
+        <v>58.5</v>
       </c>
       <c r="M75">
         <v>424.1</v>
@@ -5039,19 +5042,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5068,7 +5071,7 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76">
         <v>64</v>
@@ -5089,7 +5092,7 @@
         <v>25</v>
       </c>
       <c r="L76">
-        <v>51</v>
+        <v>58.5</v>
       </c>
       <c r="M76">
         <v>424.1</v>
@@ -5104,19 +5107,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5133,13 +5136,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77">
-        <v>0.00181</v>
+        <v>0.00186</v>
       </c>
       <c r="G77">
-        <v>0.0500124474352866</v>
+        <v>0.0500661714677908</v>
       </c>
       <c r="H77">
         <v>2.69055740572037</v>
@@ -5148,10 +5151,10 @@
         <v>0.02042</v>
       </c>
       <c r="L77">
-        <v>0.00205</v>
+        <v>0.0022</v>
       </c>
       <c r="M77">
-        <v>0.0061</v>
+        <v>0.00611</v>
       </c>
       <c r="N77">
         <v>0.01202</v>
@@ -5163,19 +5166,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5192,13 +5195,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78">
-        <v>0.00181</v>
+        <v>0.00186</v>
       </c>
       <c r="G78">
-        <v>0.0500124474352866</v>
+        <v>0.0500661714677908</v>
       </c>
       <c r="H78">
         <v>2.69055740572037</v>
@@ -5207,10 +5210,10 @@
         <v>0.02042</v>
       </c>
       <c r="L78">
-        <v>0.00205</v>
+        <v>0.0022</v>
       </c>
       <c r="M78">
-        <v>0.0061</v>
+        <v>0.00611</v>
       </c>
       <c r="N78">
         <v>0.01202</v>
@@ -5222,19 +5225,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5251,13 +5254,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <v>0.02575</v>
       </c>
       <c r="G79">
-        <v>0.0882603220534751</v>
+        <v>0.0881792639733199</v>
       </c>
       <c r="H79">
         <v>0.518</v>
@@ -5266,7 +5269,7 @@
         <v>0.3382</v>
       </c>
       <c r="L79">
-        <v>0.0014</v>
+        <v>0.00131</v>
       </c>
       <c r="M79">
         <v>0.19765</v>
@@ -5281,19 +5284,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5310,13 +5313,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80">
         <v>0.02575</v>
       </c>
       <c r="G80">
-        <v>0.0882603220534751</v>
+        <v>0.0881792639733199</v>
       </c>
       <c r="H80">
         <v>0.518</v>
@@ -5325,7 +5328,7 @@
         <v>0.3382</v>
       </c>
       <c r="L80">
-        <v>0.0014</v>
+        <v>0.00131</v>
       </c>
       <c r="M80">
         <v>0.19765</v>
@@ -5340,19 +5343,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5366,13 +5369,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81">
         <v>0.03395</v>
       </c>
       <c r="G81">
-        <v>0.162153232346392</v>
+        <v>0.162157697017717</v>
       </c>
       <c r="H81">
         <v>4.2</v>
@@ -5381,7 +5384,7 @@
         <v>0.355</v>
       </c>
       <c r="L81">
-        <v>0.00725</v>
+        <v>0.00814</v>
       </c>
       <c r="M81">
         <v>0.21304</v>
@@ -5396,19 +5399,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5422,13 +5425,13 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <v>0.03395</v>
       </c>
       <c r="G82">
-        <v>0.162153232346392</v>
+        <v>0.162157697017717</v>
       </c>
       <c r="H82">
         <v>4.2</v>
@@ -5437,7 +5440,7 @@
         <v>0.355</v>
       </c>
       <c r="L82">
-        <v>0.00725</v>
+        <v>0.00814</v>
       </c>
       <c r="M82">
         <v>0.21304</v>
@@ -5452,19 +5455,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5478,7 +5481,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <v>0.1755</v>
@@ -5493,7 +5496,7 @@
         <v>1.155</v>
       </c>
       <c r="L83">
-        <v>0.1035</v>
+        <v>0.1145</v>
       </c>
       <c r="M83">
         <v>0.435</v>
@@ -5508,19 +5511,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5534,7 +5537,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84">
         <v>0.1755</v>
@@ -5549,7 +5552,7 @@
         <v>1.155</v>
       </c>
       <c r="L84">
-        <v>0.1035</v>
+        <v>0.1145</v>
       </c>
       <c r="M84">
         <v>0.435</v>
@@ -5564,19 +5567,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5590,7 +5593,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85">
         <v>0.0185</v>
@@ -5605,7 +5608,7 @@
         <v>0.2495</v>
       </c>
       <c r="L85">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M85">
         <v>0.0653</v>
@@ -5620,19 +5623,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5646,7 +5649,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <v>0.0185</v>
@@ -5661,7 +5664,7 @@
         <v>0.2495</v>
       </c>
       <c r="L86">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="M86">
         <v>0.0653</v>
@@ -5676,19 +5679,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5705,13 +5708,13 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87">
         <v>0.595</v>
       </c>
       <c r="G87">
-        <v>1.14479912758845</v>
+        <v>1.14473997582706</v>
       </c>
       <c r="H87">
         <v>4.7</v>
@@ -5720,7 +5723,7 @@
         <v>3.6</v>
       </c>
       <c r="L87">
-        <v>2.22</v>
+        <v>1.805</v>
       </c>
       <c r="M87">
         <v>2.24</v>
@@ -5735,19 +5738,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5764,7 +5767,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88">
         <v>0.0105</v>
@@ -5779,7 +5782,7 @@
         <v>0.023</v>
       </c>
       <c r="L88">
-        <v>0.007</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M88">
         <v>0.017</v>
@@ -5794,19 +5797,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5823,7 +5826,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89">
         <v>0.0105</v>
@@ -5838,7 +5841,7 @@
         <v>0.023</v>
       </c>
       <c r="L89">
-        <v>0.007</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M89">
         <v>0.017</v>
@@ -5853,19 +5856,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5882,7 +5885,7 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90">
         <v>72</v>
@@ -5903,7 +5906,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="L90">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="M90">
         <v>450.5</v>
@@ -5918,19 +5921,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5947,7 +5950,7 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91">
         <v>72</v>
@@ -5968,7 +5971,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="L91">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="M91">
         <v>450.5</v>
@@ -5983,19 +5986,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6012,7 +6015,7 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F92">
         <v>72</v>
@@ -6033,7 +6036,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="L92">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="M92">
         <v>450.5</v>
@@ -6048,19 +6051,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6077,7 +6080,7 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <v>72</v>
@@ -6098,7 +6101,7 @@
         <v>23.3333333333333</v>
       </c>
       <c r="L93">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="M93">
         <v>450.5</v>
@@ -6113,19 +6116,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6142,13 +6145,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94">
-        <v>0.00205</v>
+        <v>0.00217</v>
       </c>
       <c r="G94">
-        <v>0.0507359237513527</v>
+        <v>0.0508352490149789</v>
       </c>
       <c r="H94">
         <v>2.69055740572037</v>
@@ -6157,13 +6160,13 @@
         <v>0.01556</v>
       </c>
       <c r="L94">
-        <v>0.00216</v>
+        <v>0.00249</v>
       </c>
       <c r="M94">
-        <v>0.00608</v>
+        <v>0.00636</v>
       </c>
       <c r="N94">
-        <v>0.009560000000000001</v>
+        <v>0.00996</v>
       </c>
       <c r="O94">
         <v>1803259.6</v>
@@ -6172,19 +6175,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6201,13 +6204,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F95">
-        <v>0.00205</v>
+        <v>0.00217</v>
       </c>
       <c r="G95">
-        <v>0.0507359237513527</v>
+        <v>0.0508352490149789</v>
       </c>
       <c r="H95">
         <v>2.69055740572037</v>
@@ -6216,13 +6219,13 @@
         <v>0.01556</v>
       </c>
       <c r="L95">
-        <v>0.00216</v>
+        <v>0.00249</v>
       </c>
       <c r="M95">
-        <v>0.00608</v>
+        <v>0.00636</v>
       </c>
       <c r="N95">
-        <v>0.009560000000000001</v>
+        <v>0.00996</v>
       </c>
       <c r="O95">
         <v>1803259.6</v>
@@ -6231,19 +6234,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6260,13 +6263,13 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96">
         <v>0.0388</v>
       </c>
       <c r="G96">
-        <v>0.0947933833654773</v>
+        <v>0.0947550398564881</v>
       </c>
       <c r="H96">
         <v>0.518</v>
@@ -6275,7 +6278,7 @@
         <v>0.2825</v>
       </c>
       <c r="L96">
-        <v>0.00193</v>
+        <v>0.00196</v>
       </c>
       <c r="M96">
         <v>0.19765</v>
@@ -6290,19 +6293,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6319,13 +6322,13 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>0.0388</v>
       </c>
       <c r="G97">
-        <v>0.0947933833654773</v>
+        <v>0.0947550398564881</v>
       </c>
       <c r="H97">
         <v>0.518</v>
@@ -6334,7 +6337,7 @@
         <v>0.2825</v>
       </c>
       <c r="L97">
-        <v>0.00193</v>
+        <v>0.00196</v>
       </c>
       <c r="M97">
         <v>0.19765</v>
@@ -6349,19 +6352,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6375,13 +6378,13 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98">
         <v>0.04515</v>
       </c>
       <c r="G98">
-        <v>0.168811083777165</v>
+        <v>0.168818599271951</v>
       </c>
       <c r="H98">
         <v>4.2</v>
@@ -6390,7 +6393,7 @@
         <v>0.355</v>
       </c>
       <c r="L98">
-        <v>0.0081</v>
+        <v>0.01027</v>
       </c>
       <c r="M98">
         <v>0.21304</v>
@@ -6405,19 +6408,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6431,13 +6434,13 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99">
         <v>0.04515</v>
       </c>
       <c r="G99">
-        <v>0.168811083777165</v>
+        <v>0.168818599271951</v>
       </c>
       <c r="H99">
         <v>4.2</v>
@@ -6446,7 +6449,7 @@
         <v>0.355</v>
       </c>
       <c r="L99">
-        <v>0.0081</v>
+        <v>0.01027</v>
       </c>
       <c r="M99">
         <v>0.21304</v>
@@ -6461,19 +6464,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6487,7 +6490,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>0.224</v>
@@ -6502,7 +6505,7 @@
         <v>1.04</v>
       </c>
       <c r="L100">
-        <v>0.1035</v>
+        <v>0.115</v>
       </c>
       <c r="M100">
         <v>0.456</v>
@@ -6517,19 +6520,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6543,7 +6546,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101">
         <v>0.224</v>
@@ -6558,7 +6561,7 @@
         <v>1.04</v>
       </c>
       <c r="L101">
-        <v>0.1035</v>
+        <v>0.115</v>
       </c>
       <c r="M101">
         <v>0.456</v>
@@ -6573,19 +6576,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6599,7 +6602,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F102">
         <v>0.025</v>
@@ -6614,7 +6617,7 @@
         <v>0.288</v>
       </c>
       <c r="L102">
-        <v>0.014</v>
+        <v>0.0145</v>
       </c>
       <c r="M102">
         <v>0.0873</v>
@@ -6629,19 +6632,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6655,7 +6658,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103">
         <v>0.025</v>
@@ -6670,7 +6673,7 @@
         <v>0.288</v>
       </c>
       <c r="L103">
-        <v>0.014</v>
+        <v>0.0145</v>
       </c>
       <c r="M103">
         <v>0.0873</v>
@@ -6685,19 +6688,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6714,13 +6717,13 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F104">
         <v>0.575</v>
       </c>
       <c r="G104">
-        <v>1.04019146883505</v>
+        <v>1.04013459214141</v>
       </c>
       <c r="H104">
         <v>4.7</v>
@@ -6729,7 +6732,7 @@
         <v>3.565</v>
       </c>
       <c r="L104">
-        <v>1.85</v>
+        <v>1.685</v>
       </c>
       <c r="M104">
         <v>2.2132</v>
@@ -6744,19 +6747,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6773,7 +6776,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F105">
         <v>0.011</v>
@@ -6788,7 +6791,7 @@
         <v>0.023</v>
       </c>
       <c r="L105">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M105">
         <v>0.0173</v>
@@ -6803,19 +6806,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6832,7 +6835,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106">
         <v>0.011</v>
@@ -6847,7 +6850,7 @@
         <v>0.023</v>
       </c>
       <c r="L106">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M106">
         <v>0.0173</v>
@@ -6862,19 +6865,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6891,7 +6894,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F107">
         <v>72</v>
@@ -6912,7 +6915,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L107">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M107">
         <v>381.9</v>
@@ -6927,19 +6930,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6956,7 +6959,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F108">
         <v>72</v>
@@ -6977,7 +6980,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L108">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M108">
         <v>381.9</v>
@@ -6992,19 +6995,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7021,7 +7024,7 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109">
         <v>72</v>
@@ -7042,7 +7045,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L109">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M109">
         <v>381.9</v>
@@ -7057,19 +7060,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7086,7 +7089,7 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110">
         <v>72</v>
@@ -7107,7 +7110,7 @@
         <v>21.6666666666667</v>
       </c>
       <c r="L110">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M110">
         <v>381.9</v>
@@ -7122,19 +7125,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7151,28 +7154,28 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111">
-        <v>0.0025</v>
+        <v>0.00263</v>
       </c>
       <c r="G111">
-        <v>0.0518810655464012</v>
+        <v>0.0520634978123454</v>
       </c>
       <c r="H111">
         <v>2.69055740572037</v>
       </c>
       <c r="I111">
-        <v>0.02039</v>
+        <v>0.02124</v>
       </c>
       <c r="L111">
-        <v>0.00375</v>
+        <v>0.00354</v>
       </c>
       <c r="M111">
-        <v>0.00949</v>
+        <v>0.00991</v>
       </c>
       <c r="N111">
-        <v>0.0124</v>
+        <v>0.01291</v>
       </c>
       <c r="O111">
         <v>1803259.6</v>
@@ -7181,19 +7184,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7210,28 +7213,28 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112">
-        <v>0.0025</v>
+        <v>0.00263</v>
       </c>
       <c r="G112">
-        <v>0.0518810655464012</v>
+        <v>0.0520634978123454</v>
       </c>
       <c r="H112">
         <v>2.69055740572037</v>
       </c>
       <c r="I112">
-        <v>0.02039</v>
+        <v>0.02124</v>
       </c>
       <c r="L112">
-        <v>0.00375</v>
+        <v>0.00354</v>
       </c>
       <c r="M112">
-        <v>0.00949</v>
+        <v>0.00991</v>
       </c>
       <c r="N112">
-        <v>0.0124</v>
+        <v>0.01291</v>
       </c>
       <c r="O112">
         <v>1803259.6</v>
@@ -7240,19 +7243,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7269,13 +7272,13 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113">
         <v>0.0582</v>
       </c>
       <c r="G113">
-        <v>0.105719394508014</v>
+        <v>0.105784074891506</v>
       </c>
       <c r="H113">
         <v>0.518</v>
@@ -7284,7 +7287,7 @@
         <v>0.3445</v>
       </c>
       <c r="L113">
-        <v>0.00193</v>
+        <v>0.00265</v>
       </c>
       <c r="M113">
         <v>0.207</v>
@@ -7299,19 +7302,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7328,13 +7331,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F114">
         <v>0.0582</v>
       </c>
       <c r="G114">
-        <v>0.105719394508014</v>
+        <v>0.105784074891506</v>
       </c>
       <c r="H114">
         <v>0.518</v>
@@ -7343,7 +7346,7 @@
         <v>0.3445</v>
       </c>
       <c r="L114">
-        <v>0.00193</v>
+        <v>0.00265</v>
       </c>
       <c r="M114">
         <v>0.207</v>
@@ -7358,19 +7361,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7384,13 +7387,13 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F115">
         <v>0.0607</v>
       </c>
       <c r="G115">
-        <v>0.180042623816581</v>
+        <v>0.180073951188619</v>
       </c>
       <c r="H115">
         <v>4.2</v>
@@ -7399,7 +7402,7 @@
         <v>0.3725</v>
       </c>
       <c r="L115">
-        <v>0.00882</v>
+        <v>0.01171</v>
       </c>
       <c r="M115">
         <v>0.22234</v>
@@ -7414,19 +7417,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7440,13 +7443,13 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F116">
         <v>0.0607</v>
       </c>
       <c r="G116">
-        <v>0.180042623816581</v>
+        <v>0.180073951188619</v>
       </c>
       <c r="H116">
         <v>4.2</v>
@@ -7455,7 +7458,7 @@
         <v>0.3725</v>
       </c>
       <c r="L116">
-        <v>0.00882</v>
+        <v>0.01171</v>
       </c>
       <c r="M116">
         <v>0.22234</v>
@@ -7470,19 +7473,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7496,7 +7499,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117">
         <v>0.24</v>
@@ -7511,7 +7514,7 @@
         <v>1.155</v>
       </c>
       <c r="L117">
-        <v>0.1035</v>
+        <v>0.125</v>
       </c>
       <c r="M117">
         <v>0.497</v>
@@ -7526,19 +7529,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7552,7 +7555,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F118">
         <v>0.24</v>
@@ -7567,7 +7570,7 @@
         <v>1.155</v>
       </c>
       <c r="L118">
-        <v>0.1035</v>
+        <v>0.125</v>
       </c>
       <c r="M118">
         <v>0.497</v>
@@ -7582,19 +7585,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7608,7 +7611,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F119">
         <v>0.0275</v>
@@ -7623,7 +7626,7 @@
         <v>0.3755</v>
       </c>
       <c r="L119">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="M119">
         <v>0.1108</v>
@@ -7638,19 +7641,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7664,7 +7667,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F120">
         <v>0.0275</v>
@@ -7679,7 +7682,7 @@
         <v>0.3755</v>
       </c>
       <c r="L120">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="M120">
         <v>0.1108</v>
@@ -7694,19 +7697,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7723,7 +7726,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F121">
         <v>0.67</v>
@@ -7738,7 +7741,7 @@
         <v>3.78</v>
       </c>
       <c r="L121">
-        <v>2.035</v>
+        <v>1.8</v>
       </c>
       <c r="M121">
         <v>2.2328</v>
@@ -7753,19 +7756,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7782,7 +7785,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F122">
         <v>0.011</v>
@@ -7797,7 +7800,7 @@
         <v>0.02255</v>
       </c>
       <c r="L122">
-        <v>0.0065</v>
+        <v>0.008</v>
       </c>
       <c r="M122">
         <v>0.017</v>
@@ -7812,19 +7815,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7841,7 +7844,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123">
         <v>0.011</v>
@@ -7856,7 +7859,7 @@
         <v>0.02255</v>
       </c>
       <c r="L123">
-        <v>0.0065</v>
+        <v>0.008</v>
       </c>
       <c r="M123">
         <v>0.017</v>
@@ -7871,19 +7874,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7900,7 +7903,7 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F124">
         <v>68</v>
@@ -7921,7 +7924,7 @@
         <v>18.6440677966102</v>
       </c>
       <c r="L124">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M124">
         <v>270</v>
@@ -7936,19 +7939,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7965,7 +7968,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F125">
         <v>68</v>
@@ -7986,7 +7989,7 @@
         <v>18.6440677966102</v>
       </c>
       <c r="L125">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M125">
         <v>270</v>
@@ -8001,19 +8004,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8030,7 +8033,7 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F126">
         <v>68</v>
@@ -8051,7 +8054,7 @@
         <v>18.6440677966102</v>
       </c>
       <c r="L126">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M126">
         <v>270</v>
@@ -8066,19 +8069,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8095,7 +8098,7 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F127">
         <v>68</v>
@@ -8116,7 +8119,7 @@
         <v>18.6440677966102</v>
       </c>
       <c r="L127">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M127">
         <v>270</v>
@@ -8131,19 +8134,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8160,28 +8163,28 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128">
-        <v>0.0034</v>
+        <v>0.00357</v>
       </c>
       <c r="G128">
-        <v>0.0571623403784975</v>
+        <v>0.0573525616228748</v>
       </c>
       <c r="H128">
         <v>2.69055740572037</v>
       </c>
       <c r="I128">
-        <v>0.03385</v>
+        <v>0.03399</v>
       </c>
       <c r="L128">
-        <v>0.00488</v>
+        <v>0.005</v>
       </c>
       <c r="M128">
-        <v>0.01063</v>
+        <v>0.01086</v>
       </c>
       <c r="N128">
-        <v>0.02065</v>
+        <v>0.02089</v>
       </c>
       <c r="O128">
         <v>1803259.6</v>
@@ -8190,19 +8193,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8219,28 +8222,28 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F129">
-        <v>0.0034</v>
+        <v>0.00357</v>
       </c>
       <c r="G129">
-        <v>0.0571623403784975</v>
+        <v>0.0573525616228748</v>
       </c>
       <c r="H129">
         <v>2.69055740572037</v>
       </c>
       <c r="I129">
-        <v>0.03385</v>
+        <v>0.03399</v>
       </c>
       <c r="L129">
-        <v>0.00488</v>
+        <v>0.005</v>
       </c>
       <c r="M129">
-        <v>0.01063</v>
+        <v>0.01086</v>
       </c>
       <c r="N129">
-        <v>0.02065</v>
+        <v>0.02089</v>
       </c>
       <c r="O129">
         <v>1803259.6</v>
@@ -8249,19 +8252,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8278,13 +8281,13 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130">
         <v>0.06</v>
       </c>
       <c r="G130">
-        <v>0.106960994625915</v>
+        <v>0.107070658182961</v>
       </c>
       <c r="H130">
         <v>0.518</v>
@@ -8293,7 +8296,7 @@
         <v>0.34465</v>
       </c>
       <c r="L130">
-        <v>0.00278</v>
+        <v>0.00376</v>
       </c>
       <c r="M130">
         <v>0.21682</v>
@@ -8308,19 +8311,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8337,13 +8340,13 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131">
         <v>0.06</v>
       </c>
       <c r="G131">
-        <v>0.106960994625915</v>
+        <v>0.107070658182961</v>
       </c>
       <c r="H131">
         <v>0.518</v>
@@ -8352,7 +8355,7 @@
         <v>0.34465</v>
       </c>
       <c r="L131">
-        <v>0.00278</v>
+        <v>0.00376</v>
       </c>
       <c r="M131">
         <v>0.21682</v>
@@ -8367,19 +8370,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8393,13 +8396,13 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132">
         <v>0.062</v>
       </c>
       <c r="G132">
-        <v>0.182886183540076</v>
+        <v>0.182918749736996</v>
       </c>
       <c r="H132">
         <v>4.2</v>
@@ -8408,7 +8411,7 @@
         <v>0.37425</v>
       </c>
       <c r="L132">
-        <v>0.00882</v>
+        <v>0.01241</v>
       </c>
       <c r="M132">
         <v>0.225</v>
@@ -8423,19 +8426,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8449,13 +8452,13 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F133">
         <v>0.062</v>
       </c>
       <c r="G133">
-        <v>0.182886183540076</v>
+        <v>0.182918749736996</v>
       </c>
       <c r="H133">
         <v>4.2</v>
@@ -8464,7 +8467,7 @@
         <v>0.37425</v>
       </c>
       <c r="L133">
-        <v>0.00882</v>
+        <v>0.01241</v>
       </c>
       <c r="M133">
         <v>0.225</v>
@@ -8479,19 +8482,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8505,7 +8508,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134">
         <v>0.23</v>
@@ -8520,7 +8523,7 @@
         <v>1.05</v>
       </c>
       <c r="L134">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M134">
         <v>0.4594</v>
@@ -8535,19 +8538,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8561,7 +8564,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F135">
         <v>0.23</v>
@@ -8576,7 +8579,7 @@
         <v>1.05</v>
       </c>
       <c r="L135">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M135">
         <v>0.4594</v>
@@ -8591,19 +8594,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8617,7 +8620,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F136">
         <v>0.027</v>
@@ -8632,7 +8635,7 @@
         <v>0.2896</v>
       </c>
       <c r="L136">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="M136">
         <v>0.07817</v>
@@ -8647,19 +8650,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8673,7 +8676,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F137">
         <v>0.027</v>
@@ -8688,7 +8691,7 @@
         <v>0.2896</v>
       </c>
       <c r="L137">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="M137">
         <v>0.07817</v>
@@ -8703,19 +8706,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8732,7 +8735,7 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138">
         <v>0.9</v>
@@ -8747,7 +8750,7 @@
         <v>3.765</v>
       </c>
       <c r="L138">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M138">
         <v>2.247</v>
@@ -8762,19 +8765,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8791,7 +8794,7 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F139">
         <v>0.01</v>
@@ -8821,19 +8824,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8850,7 +8853,7 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F140">
         <v>0.01</v>
@@ -8880,19 +8883,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8909,7 +8912,7 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F141">
         <v>68</v>
@@ -8930,7 +8933,7 @@
         <v>11.864406779661</v>
       </c>
       <c r="L141">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M141">
         <v>199.4</v>
@@ -8945,19 +8948,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8974,7 +8977,7 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142">
         <v>68</v>
@@ -8995,7 +8998,7 @@
         <v>11.864406779661</v>
       </c>
       <c r="L142">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M142">
         <v>199.4</v>
@@ -9010,19 +9013,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9039,7 +9042,7 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F143">
         <v>68</v>
@@ -9060,7 +9063,7 @@
         <v>11.864406779661</v>
       </c>
       <c r="L143">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M143">
         <v>199.4</v>
@@ -9075,19 +9078,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9104,7 +9107,7 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F144">
         <v>68</v>
@@ -9125,7 +9128,7 @@
         <v>11.864406779661</v>
       </c>
       <c r="L144">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M144">
         <v>199.4</v>
@@ -9140,19 +9143,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9169,28 +9172,28 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F145">
-        <v>0.00527</v>
+        <v>0.00532</v>
       </c>
       <c r="G145">
-        <v>0.0079519703367186</v>
+        <v>0.008120318686725801</v>
       </c>
       <c r="H145">
         <v>0.0430416717491898</v>
       </c>
       <c r="I145">
-        <v>0.03318</v>
+        <v>0.03337</v>
       </c>
       <c r="L145">
-        <v>0.00604</v>
+        <v>0.00722</v>
       </c>
       <c r="M145">
-        <v>0.01141</v>
+        <v>0.01188</v>
       </c>
       <c r="N145">
-        <v>0.02045</v>
+        <v>0.02062</v>
       </c>
       <c r="O145">
         <v>1803259.6</v>
@@ -9199,19 +9202,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9228,28 +9231,28 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F146">
-        <v>0.00527</v>
+        <v>0.00532</v>
       </c>
       <c r="G146">
-        <v>0.0079519703367186</v>
+        <v>0.008120318686725801</v>
       </c>
       <c r="H146">
         <v>0.0430416717491898</v>
       </c>
       <c r="I146">
-        <v>0.03318</v>
+        <v>0.03337</v>
       </c>
       <c r="L146">
-        <v>0.00604</v>
+        <v>0.00722</v>
       </c>
       <c r="M146">
-        <v>0.01141</v>
+        <v>0.01188</v>
       </c>
       <c r="N146">
-        <v>0.02045</v>
+        <v>0.02062</v>
       </c>
       <c r="O146">
         <v>1803259.6</v>
@@ -9258,19 +9261,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9287,13 +9290,13 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F147">
         <v>0.037</v>
       </c>
       <c r="G147">
-        <v>0.0958785171046749</v>
+        <v>0.09600729224354219</v>
       </c>
       <c r="H147">
         <v>0.518</v>
@@ -9302,7 +9305,7 @@
         <v>0.30415</v>
       </c>
       <c r="L147">
-        <v>0.00327</v>
+        <v>0.00464</v>
       </c>
       <c r="M147">
         <v>0.20605</v>
@@ -9317,19 +9320,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9346,13 +9349,13 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F148">
         <v>0.037</v>
       </c>
       <c r="G148">
-        <v>0.0958785171046749</v>
+        <v>0.09600729224354219</v>
       </c>
       <c r="H148">
         <v>0.518</v>
@@ -9361,7 +9364,7 @@
         <v>0.30415</v>
       </c>
       <c r="L148">
-        <v>0.00327</v>
+        <v>0.00464</v>
       </c>
       <c r="M148">
         <v>0.20605</v>
@@ -9376,19 +9379,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9402,13 +9405,13 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F149">
         <v>0.041</v>
       </c>
       <c r="G149">
-        <v>0.103682432003582</v>
+        <v>0.103709750004307</v>
       </c>
       <c r="H149">
         <v>0.535</v>
@@ -9417,7 +9420,7 @@
         <v>0.3127</v>
       </c>
       <c r="L149">
-        <v>0.01259</v>
+        <v>0.01397</v>
       </c>
       <c r="M149">
         <v>0.2144</v>
@@ -9432,19 +9435,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9458,13 +9461,13 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F150">
         <v>0.041</v>
       </c>
       <c r="G150">
-        <v>0.103682432003582</v>
+        <v>0.103709750004307</v>
       </c>
       <c r="H150">
         <v>0.535</v>
@@ -9473,7 +9476,7 @@
         <v>0.3127</v>
       </c>
       <c r="L150">
-        <v>0.01259</v>
+        <v>0.01397</v>
       </c>
       <c r="M150">
         <v>0.2144</v>
@@ -9488,19 +9491,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U150" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9514,7 +9517,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F151">
         <v>0.21</v>
@@ -9529,7 +9532,7 @@
         <v>0.6855</v>
       </c>
       <c r="L151">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M151">
         <v>0.3794</v>
@@ -9544,19 +9547,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9570,7 +9573,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F152">
         <v>0.21</v>
@@ -9585,7 +9588,7 @@
         <v>0.6855</v>
       </c>
       <c r="L152">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M152">
         <v>0.3794</v>
@@ -9600,19 +9603,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9626,7 +9629,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F153">
         <v>0.02</v>
@@ -9641,7 +9644,7 @@
         <v>0.24815</v>
       </c>
       <c r="L153">
-        <v>0.0145</v>
+        <v>0.015</v>
       </c>
       <c r="M153">
         <v>0.05547</v>
@@ -9656,19 +9659,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9682,7 +9685,7 @@
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F154">
         <v>0.02</v>
@@ -9697,7 +9700,7 @@
         <v>0.24815</v>
       </c>
       <c r="L154">
-        <v>0.0145</v>
+        <v>0.015</v>
       </c>
       <c r="M154">
         <v>0.05547</v>
@@ -9712,19 +9715,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9741,7 +9744,7 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F155">
         <v>1.1</v>
@@ -9756,7 +9759,7 @@
         <v>3.84</v>
       </c>
       <c r="L155">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="M155">
         <v>2.4</v>
@@ -9771,19 +9774,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9800,7 +9803,7 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F156">
         <v>0.01</v>
@@ -9815,7 +9818,7 @@
         <v>0.0196</v>
       </c>
       <c r="L156">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M156">
         <v>0.015</v>
@@ -9830,19 +9833,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9859,7 +9862,7 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F157">
         <v>0.01</v>
@@ -9874,7 +9877,7 @@
         <v>0.0196</v>
       </c>
       <c r="L157">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M157">
         <v>0.015</v>
@@ -9889,19 +9892,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9918,13 +9921,13 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F158">
         <v>65</v>
       </c>
       <c r="G158">
-        <v>306.603448275862</v>
+        <v>306.606896551724</v>
       </c>
       <c r="H158">
         <v>9700</v>
@@ -9939,13 +9942,13 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L158">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M158">
         <v>210</v>
       </c>
       <c r="N158">
-        <v>507.96</v>
+        <v>508.016</v>
       </c>
       <c r="O158">
         <v>1803259.6</v>
@@ -9954,19 +9957,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U158" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9983,13 +9986,13 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F159">
         <v>65</v>
       </c>
       <c r="G159">
-        <v>306.603448275862</v>
+        <v>306.606896551724</v>
       </c>
       <c r="H159">
         <v>9700</v>
@@ -10004,13 +10007,13 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L159">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M159">
         <v>210</v>
       </c>
       <c r="N159">
-        <v>507.96</v>
+        <v>508.016</v>
       </c>
       <c r="O159">
         <v>1803259.6</v>
@@ -10019,19 +10022,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U159" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10048,13 +10051,13 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F160">
         <v>65</v>
       </c>
       <c r="G160">
-        <v>306.603448275862</v>
+        <v>306.606896551724</v>
       </c>
       <c r="H160">
         <v>9700</v>
@@ -10069,13 +10072,13 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L160">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M160">
         <v>210</v>
       </c>
       <c r="N160">
-        <v>507.96</v>
+        <v>508.016</v>
       </c>
       <c r="O160">
         <v>1803259.6</v>
@@ -10084,19 +10087,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10113,13 +10116,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F161">
         <v>65</v>
       </c>
       <c r="G161">
-        <v>306.603448275862</v>
+        <v>306.606896551724</v>
       </c>
       <c r="H161">
         <v>9700</v>
@@ -10134,13 +10137,13 @@
         <v>12.0689655172414</v>
       </c>
       <c r="L161">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M161">
         <v>210</v>
       </c>
       <c r="N161">
-        <v>507.96</v>
+        <v>508.016</v>
       </c>
       <c r="O161">
         <v>1803259.6</v>
@@ -10149,19 +10152,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U161" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10178,28 +10181,28 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F162">
-        <v>0.0061</v>
+        <v>0.00626</v>
       </c>
       <c r="G162">
-        <v>0.008769529960989699</v>
+        <v>0.008909127269730499</v>
       </c>
       <c r="H162">
         <v>0.0430416717491898</v>
       </c>
       <c r="I162">
-        <v>0.03385</v>
+        <v>0.03399</v>
       </c>
       <c r="L162">
-        <v>0.0061</v>
+        <v>0.00682</v>
       </c>
       <c r="M162">
-        <v>0.01324</v>
+        <v>0.01351</v>
       </c>
       <c r="N162">
-        <v>0.02192</v>
+        <v>0.02216</v>
       </c>
       <c r="O162">
         <v>1803259.6</v>
@@ -10208,19 +10211,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10237,28 +10240,28 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163">
-        <v>0.0061</v>
+        <v>0.00626</v>
       </c>
       <c r="G163">
-        <v>0.008769529960989699</v>
+        <v>0.008909127269730499</v>
       </c>
       <c r="H163">
         <v>0.0430416717491898</v>
       </c>
       <c r="I163">
-        <v>0.03385</v>
+        <v>0.03399</v>
       </c>
       <c r="L163">
-        <v>0.0061</v>
+        <v>0.00682</v>
       </c>
       <c r="M163">
-        <v>0.01324</v>
+        <v>0.01351</v>
       </c>
       <c r="N163">
-        <v>0.02192</v>
+        <v>0.02216</v>
       </c>
       <c r="O163">
         <v>1803259.6</v>
@@ -10267,19 +10270,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10296,13 +10299,13 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F164">
         <v>0.0275</v>
       </c>
       <c r="G164">
-        <v>0.0846131685963514</v>
+        <v>0.08477801596748991</v>
       </c>
       <c r="H164">
         <v>0.358</v>
@@ -10311,7 +10314,7 @@
         <v>0.2878</v>
       </c>
       <c r="L164">
-        <v>0.00361</v>
+        <v>0.0048</v>
       </c>
       <c r="M164">
         <v>0.1846</v>
@@ -10326,19 +10329,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10355,13 +10358,13 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F165">
         <v>0.0275</v>
       </c>
       <c r="G165">
-        <v>0.0846131685963514</v>
+        <v>0.08477801596748991</v>
       </c>
       <c r="H165">
         <v>0.358</v>
@@ -10370,7 +10373,7 @@
         <v>0.2878</v>
       </c>
       <c r="L165">
-        <v>0.00361</v>
+        <v>0.0048</v>
       </c>
       <c r="M165">
         <v>0.1846</v>
@@ -10385,19 +10388,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U165" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10411,13 +10414,13 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F166">
         <v>0.0375</v>
       </c>
       <c r="G166">
-        <v>0.09255626703812669</v>
+        <v>0.0925840560388644</v>
       </c>
       <c r="H166">
         <v>0.39</v>
@@ -10426,7 +10429,7 @@
         <v>0.2958</v>
       </c>
       <c r="L166">
-        <v>0.013</v>
+        <v>0.01349</v>
       </c>
       <c r="M166">
         <v>0.20104</v>
@@ -10441,19 +10444,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U166" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10467,13 +10470,13 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167">
         <v>0.0375</v>
       </c>
       <c r="G167">
-        <v>0.09255626703812669</v>
+        <v>0.0925840560388644</v>
       </c>
       <c r="H167">
         <v>0.39</v>
@@ -10482,7 +10485,7 @@
         <v>0.2958</v>
       </c>
       <c r="L167">
-        <v>0.013</v>
+        <v>0.01349</v>
       </c>
       <c r="M167">
         <v>0.20104</v>
@@ -10497,19 +10500,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U167" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10523,7 +10526,7 @@
         <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F168">
         <v>0.185</v>
@@ -10538,7 +10541,7 @@
         <v>0.544</v>
       </c>
       <c r="L168">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="M168">
         <v>0.3392</v>
@@ -10553,19 +10556,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U168" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10579,7 +10582,7 @@
         <v>53</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F169">
         <v>0.185</v>
@@ -10594,7 +10597,7 @@
         <v>0.544</v>
       </c>
       <c r="L169">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="M169">
         <v>0.3392</v>
@@ -10609,19 +10612,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U169" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10635,7 +10638,7 @@
         <v>53</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>0.02</v>
@@ -10665,19 +10668,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U170" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10691,7 +10694,7 @@
         <v>53</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>0.02</v>
@@ -10721,19 +10724,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U171" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10750,7 +10753,7 @@
         <v>54</v>
       </c>
       <c r="E172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F172">
         <v>0.8149999999999999</v>
@@ -10765,7 +10768,7 @@
         <v>3.82</v>
       </c>
       <c r="L172">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="M172">
         <v>2.166</v>
@@ -10780,19 +10783,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10809,7 +10812,7 @@
         <v>54</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173">
         <v>0.0095</v>
@@ -10824,7 +10827,7 @@
         <v>0.019</v>
       </c>
       <c r="L173">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M173">
         <v>0.015</v>
@@ -10839,19 +10842,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U173" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10868,7 +10871,7 @@
         <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F174">
         <v>0.0095</v>
@@ -10883,7 +10886,7 @@
         <v>0.019</v>
       </c>
       <c r="L174">
-        <v>0.008</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M174">
         <v>0.015</v>
@@ -10898,19 +10901,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10927,13 +10930,13 @@
         <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F175">
         <v>63.5</v>
       </c>
       <c r="G175">
-        <v>567.293103448276</v>
+        <v>567.289655172414</v>
       </c>
       <c r="H175">
         <v>17230</v>
@@ -10948,13 +10951,13 @@
         <v>13.7931034482759</v>
       </c>
       <c r="L175">
-        <v>58</v>
+        <v>65.5</v>
       </c>
       <c r="M175">
         <v>174.08</v>
       </c>
       <c r="N175">
-        <v>427</v>
+        <v>427.288</v>
       </c>
       <c r="O175">
         <v>1803259.6</v>
@@ -10963,19 +10966,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U175" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -10992,13 +10995,13 @@
         <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>63.5</v>
       </c>
       <c r="G176">
-        <v>567.293103448276</v>
+        <v>567.289655172414</v>
       </c>
       <c r="H176">
         <v>17230</v>
@@ -11013,13 +11016,13 @@
         <v>13.7931034482759</v>
       </c>
       <c r="L176">
-        <v>58</v>
+        <v>65.5</v>
       </c>
       <c r="M176">
         <v>174.08</v>
       </c>
       <c r="N176">
-        <v>427</v>
+        <v>427.288</v>
       </c>
       <c r="O176">
         <v>1803259.6</v>
@@ -11028,19 +11031,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U176" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11057,13 +11060,13 @@
         <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177">
         <v>63.5</v>
       </c>
       <c r="G177">
-        <v>567.293103448276</v>
+        <v>567.289655172414</v>
       </c>
       <c r="H177">
         <v>17230</v>
@@ -11078,13 +11081,13 @@
         <v>13.7931034482759</v>
       </c>
       <c r="L177">
-        <v>58</v>
+        <v>65.5</v>
       </c>
       <c r="M177">
         <v>174.08</v>
       </c>
       <c r="N177">
-        <v>427</v>
+        <v>427.288</v>
       </c>
       <c r="O177">
         <v>1803259.6</v>
@@ -11093,19 +11096,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U177" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11122,13 +11125,13 @@
         <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F178">
         <v>63.5</v>
       </c>
       <c r="G178">
-        <v>567.293103448276</v>
+        <v>567.289655172414</v>
       </c>
       <c r="H178">
         <v>17230</v>
@@ -11143,13 +11146,13 @@
         <v>13.7931034482759</v>
       </c>
       <c r="L178">
-        <v>58</v>
+        <v>65.5</v>
       </c>
       <c r="M178">
         <v>174.08</v>
       </c>
       <c r="N178">
-        <v>427</v>
+        <v>427.288</v>
       </c>
       <c r="O178">
         <v>1803259.6</v>
@@ -11158,19 +11161,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U178" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11187,28 +11190,28 @@
         <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F179">
         <v>0.00646</v>
       </c>
       <c r="G179">
-        <v>0.008760598669734899</v>
+        <v>0.008850471099768499</v>
       </c>
       <c r="H179">
         <v>0.0430416717491898</v>
       </c>
       <c r="I179">
-        <v>0.03318</v>
+        <v>0.03337</v>
       </c>
       <c r="L179">
-        <v>0.005</v>
+        <v>0.00644</v>
       </c>
       <c r="M179">
-        <v>0.01298</v>
+        <v>0.01334</v>
       </c>
       <c r="N179">
-        <v>0.02185</v>
+        <v>0.02202</v>
       </c>
       <c r="O179">
         <v>1803259.6</v>
@@ -11217,19 +11220,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U179" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11246,28 +11249,28 @@
         <v>54</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>0.00646</v>
       </c>
       <c r="G180">
-        <v>0.008760598669734899</v>
+        <v>0.008850471099768499</v>
       </c>
       <c r="H180">
         <v>0.0430416717491898</v>
       </c>
       <c r="I180">
-        <v>0.03318</v>
+        <v>0.03337</v>
       </c>
       <c r="L180">
-        <v>0.005</v>
+        <v>0.00644</v>
       </c>
       <c r="M180">
-        <v>0.01298</v>
+        <v>0.01334</v>
       </c>
       <c r="N180">
-        <v>0.02185</v>
+        <v>0.02202</v>
       </c>
       <c r="O180">
         <v>1803259.6</v>
@@ -11276,19 +11279,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U180" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11305,13 +11308,13 @@
         <v>54</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181">
         <v>0.043</v>
       </c>
       <c r="G181">
-        <v>0.09230482930807329</v>
+        <v>0.0924599719504194</v>
       </c>
       <c r="H181">
         <v>0.358</v>
@@ -11320,7 +11323,7 @@
         <v>0.3258</v>
       </c>
       <c r="L181">
-        <v>0.004</v>
+        <v>0.00581</v>
       </c>
       <c r="M181">
         <v>0.22652</v>
@@ -11335,19 +11338,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U181" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11364,13 +11367,13 @@
         <v>54</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F182">
         <v>0.043</v>
       </c>
       <c r="G182">
-        <v>0.09230482930807329</v>
+        <v>0.0924599719504194</v>
       </c>
       <c r="H182">
         <v>0.358</v>
@@ -11379,7 +11382,7 @@
         <v>0.3258</v>
       </c>
       <c r="L182">
-        <v>0.004</v>
+        <v>0.00581</v>
       </c>
       <c r="M182">
         <v>0.22652</v>
@@ -11394,19 +11397,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U182" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11420,13 +11423,13 @@
         <v>54</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F183">
         <v>0.04575</v>
       </c>
       <c r="G183">
-        <v>0.100180903489051</v>
+        <v>0.100205536465518</v>
       </c>
       <c r="H183">
         <v>0.39</v>
@@ -11435,7 +11438,7 @@
         <v>0.3342</v>
       </c>
       <c r="L183">
-        <v>0.01366</v>
+        <v>0.0148</v>
       </c>
       <c r="M183">
         <v>0.22932</v>
@@ -11450,19 +11453,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U183" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -11476,13 +11479,13 @@
         <v>54</v>
       </c>
       <c r="E184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F184">
         <v>0.04575</v>
       </c>
       <c r="G184">
-        <v>0.100180903489051</v>
+        <v>0.100205536465518</v>
       </c>
       <c r="H184">
         <v>0.39</v>
@@ -11491,7 +11494,7 @@
         <v>0.3342</v>
       </c>
       <c r="L184">
-        <v>0.01366</v>
+        <v>0.0148</v>
       </c>
       <c r="M184">
         <v>0.22932</v>
@@ -11506,19 +11509,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q184" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11532,7 +11535,7 @@
         <v>54</v>
       </c>
       <c r="E185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F185">
         <v>0.18</v>
@@ -11562,19 +11565,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -11588,7 +11591,7 @@
         <v>54</v>
       </c>
       <c r="E186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F186">
         <v>0.18</v>
@@ -11618,19 +11621,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q186" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -11644,7 +11647,7 @@
         <v>54</v>
       </c>
       <c r="E187" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F187">
         <v>0.024</v>
@@ -11659,7 +11662,7 @@
         <v>0.123</v>
       </c>
       <c r="L187">
-        <v>0.016</v>
+        <v>0.0155</v>
       </c>
       <c r="M187">
         <v>0.0592</v>
@@ -11674,19 +11677,19 @@
         <v>5548639.715</v>
       </c>
       <c r="Q187" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T187" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U187" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -11700,7 +11703,7 @@
         <v>54</v>
       </c>
       <c r="E188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F188">
         <v>0.024</v>
@@ -11715,7 +11718,7 @@
         <v>0.123</v>
       </c>
       <c r="L188">
-        <v>0.016</v>
+        <v>0.0155</v>
       </c>
       <c r="M188">
         <v>0.0592</v>
@@ -11730,19 +11733,1028 @@
         <v>5548639.715</v>
       </c>
       <c r="Q188" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U188" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189">
+        <v>0.58</v>
+      </c>
+      <c r="G189">
+        <v>1.15369565217391</v>
+      </c>
+      <c r="H189">
+        <v>4.6</v>
+      </c>
+      <c r="I189">
+        <v>3.92</v>
+      </c>
+      <c r="L189">
+        <v>2.05</v>
+      </c>
+      <c r="M189">
+        <v>2.168</v>
+      </c>
+      <c r="N189">
+        <v>3.028</v>
+      </c>
+      <c r="O189">
+        <v>1803259.6</v>
+      </c>
+      <c r="P189">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>57</v>
+      </c>
+      <c r="R189" t="s">
+        <v>58</v>
+      </c>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
+      <c r="T189" t="s">
+        <v>60</v>
+      </c>
+      <c r="U189" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G190">
+        <v>0.009862068965517201</v>
+      </c>
+      <c r="H190">
+        <v>0.028</v>
+      </c>
+      <c r="I190">
+        <v>0.0208</v>
+      </c>
+      <c r="L190">
+        <v>0.008</v>
+      </c>
+      <c r="M190">
+        <v>0.015</v>
+      </c>
+      <c r="N190">
+        <v>0.01872</v>
+      </c>
+      <c r="O190">
+        <v>1803259.6</v>
+      </c>
+      <c r="P190">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>57</v>
+      </c>
+      <c r="R190" t="s">
+        <v>58</v>
+      </c>
+      <c r="S190" t="s">
+        <v>59</v>
+      </c>
+      <c r="T190" t="s">
+        <v>60</v>
+      </c>
+      <c r="U190" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G191">
+        <v>0.009862068965517201</v>
+      </c>
+      <c r="H191">
+        <v>0.028</v>
+      </c>
+      <c r="I191">
+        <v>0.0208</v>
+      </c>
+      <c r="L191">
+        <v>0.008</v>
+      </c>
+      <c r="M191">
+        <v>0.015</v>
+      </c>
+      <c r="N191">
+        <v>0.01872</v>
+      </c>
+      <c r="O191">
+        <v>1803259.6</v>
+      </c>
+      <c r="P191">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>57</v>
+      </c>
+      <c r="R191" t="s">
+        <v>58</v>
+      </c>
+      <c r="S191" t="s">
+        <v>59</v>
+      </c>
+      <c r="T191" t="s">
+        <v>60</v>
+      </c>
+      <c r="U191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192">
+        <v>73</v>
+      </c>
+      <c r="G192">
+        <v>471.744827586207</v>
+      </c>
+      <c r="H192">
+        <v>17230</v>
+      </c>
+      <c r="I192">
+        <v>1136.96</v>
+      </c>
+      <c r="J192">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K192">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L192">
+        <v>73</v>
+      </c>
+      <c r="M192">
+        <v>265.184</v>
+      </c>
+      <c r="N192">
+        <v>508.016</v>
+      </c>
+      <c r="O192">
+        <v>1803259.6</v>
+      </c>
+      <c r="P192">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>57</v>
+      </c>
+      <c r="R192" t="s">
+        <v>58</v>
+      </c>
+      <c r="S192" t="s">
+        <v>59</v>
+      </c>
+      <c r="T192" t="s">
+        <v>60</v>
+      </c>
+      <c r="U192" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193">
+        <v>73</v>
+      </c>
+      <c r="G193">
+        <v>471.744827586207</v>
+      </c>
+      <c r="H193">
+        <v>17230</v>
+      </c>
+      <c r="I193">
+        <v>1136.96</v>
+      </c>
+      <c r="J193">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K193">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L193">
+        <v>73</v>
+      </c>
+      <c r="M193">
+        <v>265.184</v>
+      </c>
+      <c r="N193">
+        <v>508.016</v>
+      </c>
+      <c r="O193">
+        <v>1803259.6</v>
+      </c>
+      <c r="P193">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>57</v>
+      </c>
+      <c r="R193" t="s">
+        <v>58</v>
+      </c>
+      <c r="S193" t="s">
+        <v>59</v>
+      </c>
+      <c r="T193" t="s">
+        <v>60</v>
+      </c>
+      <c r="U193" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" t="s">
+        <v>42</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>56</v>
+      </c>
+      <c r="F194">
+        <v>73</v>
+      </c>
+      <c r="G194">
+        <v>471.744827586207</v>
+      </c>
+      <c r="H194">
+        <v>17230</v>
+      </c>
+      <c r="I194">
+        <v>1136.96</v>
+      </c>
+      <c r="J194">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K194">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L194">
+        <v>73</v>
+      </c>
+      <c r="M194">
+        <v>265.184</v>
+      </c>
+      <c r="N194">
+        <v>508.016</v>
+      </c>
+      <c r="O194">
+        <v>1803259.6</v>
+      </c>
+      <c r="P194">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>57</v>
+      </c>
+      <c r="R194" t="s">
+        <v>58</v>
+      </c>
+      <c r="S194" t="s">
+        <v>59</v>
+      </c>
+      <c r="T194" t="s">
+        <v>60</v>
+      </c>
+      <c r="U194" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" t="s">
+        <v>43</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195">
+        <v>73</v>
+      </c>
+      <c r="G195">
+        <v>471.744827586207</v>
+      </c>
+      <c r="H195">
+        <v>17230</v>
+      </c>
+      <c r="I195">
+        <v>1136.96</v>
+      </c>
+      <c r="J195">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K195">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L195">
+        <v>73</v>
+      </c>
+      <c r="M195">
+        <v>265.184</v>
+      </c>
+      <c r="N195">
+        <v>508.016</v>
+      </c>
+      <c r="O195">
+        <v>1803259.6</v>
+      </c>
+      <c r="P195">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>57</v>
+      </c>
+      <c r="R195" t="s">
+        <v>58</v>
+      </c>
+      <c r="S195" t="s">
+        <v>59</v>
+      </c>
+      <c r="T195" t="s">
+        <v>60</v>
+      </c>
+      <c r="U195" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" t="s">
+        <v>42</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>56</v>
+      </c>
+      <c r="F196">
+        <v>0.00503</v>
+      </c>
+      <c r="G196">
+        <v>0.0073468672492644</v>
+      </c>
+      <c r="H196">
+        <v>0.0430416717491898</v>
+      </c>
+      <c r="I196">
+        <v>0.02137</v>
+      </c>
+      <c r="L196">
+        <v>0.0042</v>
+      </c>
+      <c r="M196">
+        <v>0.0108</v>
+      </c>
+      <c r="N196">
+        <v>0.01724</v>
+      </c>
+      <c r="O196">
+        <v>1803259.6</v>
+      </c>
+      <c r="P196">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>57</v>
+      </c>
+      <c r="R196" t="s">
+        <v>58</v>
+      </c>
+      <c r="S196" t="s">
+        <v>59</v>
+      </c>
+      <c r="T196" t="s">
+        <v>60</v>
+      </c>
+      <c r="U196" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>56</v>
+      </c>
+      <c r="F197">
+        <v>0.00503</v>
+      </c>
+      <c r="G197">
+        <v>0.0073468672492644</v>
+      </c>
+      <c r="H197">
+        <v>0.0430416717491898</v>
+      </c>
+      <c r="I197">
+        <v>0.02137</v>
+      </c>
+      <c r="L197">
+        <v>0.0042</v>
+      </c>
+      <c r="M197">
+        <v>0.0108</v>
+      </c>
+      <c r="N197">
+        <v>0.01724</v>
+      </c>
+      <c r="O197">
+        <v>1803259.6</v>
+      </c>
+      <c r="P197">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>57</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="S197" t="s">
+        <v>59</v>
+      </c>
+      <c r="T197" t="s">
+        <v>60</v>
+      </c>
+      <c r="U197" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" t="s">
+        <v>42</v>
+      </c>
+      <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
+        <v>56</v>
+      </c>
+      <c r="F198">
+        <v>0.046</v>
+      </c>
+      <c r="G198">
+        <v>0.08933443901202071</v>
+      </c>
+      <c r="H198">
+        <v>0.349</v>
+      </c>
+      <c r="I198">
+        <v>0.3152</v>
+      </c>
+      <c r="L198">
+        <v>0.00581</v>
+      </c>
+      <c r="M198">
+        <v>0.2312</v>
+      </c>
+      <c r="N198">
+        <v>0.2659</v>
+      </c>
+      <c r="O198">
+        <v>1803259.6</v>
+      </c>
+      <c r="P198">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>57</v>
+      </c>
+      <c r="R198" t="s">
+        <v>58</v>
+      </c>
+      <c r="S198" t="s">
+        <v>59</v>
+      </c>
+      <c r="T198" t="s">
+        <v>60</v>
+      </c>
+      <c r="U198" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" t="s">
+        <v>42</v>
+      </c>
+      <c r="D199" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199">
+        <v>0.046</v>
+      </c>
+      <c r="G199">
+        <v>0.08933443901202071</v>
+      </c>
+      <c r="H199">
+        <v>0.349</v>
+      </c>
+      <c r="I199">
+        <v>0.3152</v>
+      </c>
+      <c r="L199">
+        <v>0.00581</v>
+      </c>
+      <c r="M199">
+        <v>0.2312</v>
+      </c>
+      <c r="N199">
+        <v>0.2659</v>
+      </c>
+      <c r="O199">
+        <v>1803259.6</v>
+      </c>
+      <c r="P199">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>57</v>
+      </c>
+      <c r="R199" t="s">
+        <v>58</v>
+      </c>
+      <c r="S199" t="s">
+        <v>59</v>
+      </c>
+      <c r="T199" t="s">
+        <v>60</v>
+      </c>
+      <c r="U199" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" t="s">
+        <v>33</v>
+      </c>
+      <c r="D200" t="s">
+        <v>55</v>
+      </c>
+      <c r="E200" t="s">
+        <v>56</v>
+      </c>
+      <c r="F200">
+        <v>0.04825</v>
+      </c>
+      <c r="G200">
+        <v>0.0966379310344828</v>
+      </c>
+      <c r="H200">
+        <v>0.383</v>
+      </c>
+      <c r="I200">
+        <v>0.3274</v>
+      </c>
+      <c r="L200">
+        <v>0.011</v>
+      </c>
+      <c r="M200">
+        <v>0.2358</v>
+      </c>
+      <c r="N200">
+        <v>0.27562</v>
+      </c>
+      <c r="O200">
+        <v>1803259.6</v>
+      </c>
+      <c r="P200">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>57</v>
+      </c>
+      <c r="R200" t="s">
+        <v>58</v>
+      </c>
+      <c r="S200" t="s">
+        <v>59</v>
+      </c>
+      <c r="T200" t="s">
+        <v>60</v>
+      </c>
+      <c r="U200" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" t="s">
+        <v>55</v>
+      </c>
+      <c r="E201" t="s">
+        <v>56</v>
+      </c>
+      <c r="F201">
+        <v>0.04825</v>
+      </c>
+      <c r="G201">
+        <v>0.0966379310344828</v>
+      </c>
+      <c r="H201">
+        <v>0.383</v>
+      </c>
+      <c r="I201">
+        <v>0.3274</v>
+      </c>
+      <c r="L201">
+        <v>0.011</v>
+      </c>
+      <c r="M201">
+        <v>0.2358</v>
+      </c>
+      <c r="N201">
+        <v>0.27562</v>
+      </c>
+      <c r="O201">
+        <v>1803259.6</v>
+      </c>
+      <c r="P201">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>57</v>
+      </c>
+      <c r="R201" t="s">
+        <v>58</v>
+      </c>
+      <c r="S201" t="s">
+        <v>59</v>
+      </c>
+      <c r="T201" t="s">
+        <v>60</v>
+      </c>
+      <c r="U201" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" t="s">
+        <v>55</v>
+      </c>
+      <c r="E202" t="s">
+        <v>56</v>
+      </c>
+      <c r="F202">
+        <v>0.17</v>
+      </c>
+      <c r="G202">
+        <v>0.237758620689655</v>
+      </c>
+      <c r="H202">
+        <v>1.35</v>
+      </c>
+      <c r="I202">
+        <v>0.598</v>
+      </c>
+      <c r="L202">
+        <v>0.14</v>
+      </c>
+      <c r="M202">
+        <v>0.3764</v>
+      </c>
+      <c r="N202">
+        <v>0.4372</v>
+      </c>
+      <c r="O202">
+        <v>1803259.6</v>
+      </c>
+      <c r="P202">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>57</v>
+      </c>
+      <c r="R202" t="s">
+        <v>58</v>
+      </c>
+      <c r="S202" t="s">
+        <v>59</v>
+      </c>
+      <c r="T202" t="s">
+        <v>60</v>
+      </c>
+      <c r="U202" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="s">
+        <v>36</v>
+      </c>
+      <c r="D203" t="s">
+        <v>55</v>
+      </c>
+      <c r="E203" t="s">
+        <v>56</v>
+      </c>
+      <c r="F203">
+        <v>0.17</v>
+      </c>
+      <c r="G203">
+        <v>0.237758620689655</v>
+      </c>
+      <c r="H203">
+        <v>1.35</v>
+      </c>
+      <c r="I203">
+        <v>0.598</v>
+      </c>
+      <c r="L203">
+        <v>0.14</v>
+      </c>
+      <c r="M203">
+        <v>0.3764</v>
+      </c>
+      <c r="N203">
+        <v>0.4372</v>
+      </c>
+      <c r="O203">
+        <v>1803259.6</v>
+      </c>
+      <c r="P203">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>57</v>
+      </c>
+      <c r="R203" t="s">
+        <v>58</v>
+      </c>
+      <c r="S203" t="s">
+        <v>59</v>
+      </c>
+      <c r="T203" t="s">
+        <v>60</v>
+      </c>
+      <c r="U203" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="s">
+        <v>37</v>
+      </c>
+      <c r="D204" t="s">
+        <v>55</v>
+      </c>
+      <c r="E204" t="s">
+        <v>56</v>
+      </c>
+      <c r="F204">
+        <v>0.023</v>
+      </c>
+      <c r="G204">
+        <v>0.0507758620689655</v>
+      </c>
+      <c r="H204">
+        <v>0.906</v>
+      </c>
+      <c r="I204">
+        <v>0.123</v>
+      </c>
+      <c r="L204">
+        <v>0.015</v>
+      </c>
+      <c r="M204">
+        <v>0.064</v>
+      </c>
+      <c r="N204">
+        <v>0.1113</v>
+      </c>
+      <c r="O204">
+        <v>1803259.6</v>
+      </c>
+      <c r="P204">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>57</v>
+      </c>
+      <c r="R204" t="s">
+        <v>58</v>
+      </c>
+      <c r="S204" t="s">
+        <v>59</v>
+      </c>
+      <c r="T204" t="s">
+        <v>60</v>
+      </c>
+      <c r="U204" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205" t="s">
+        <v>55</v>
+      </c>
+      <c r="E205" t="s">
+        <v>56</v>
+      </c>
+      <c r="F205">
+        <v>0.023</v>
+      </c>
+      <c r="G205">
+        <v>0.0507758620689655</v>
+      </c>
+      <c r="H205">
+        <v>0.906</v>
+      </c>
+      <c r="I205">
+        <v>0.123</v>
+      </c>
+      <c r="L205">
+        <v>0.015</v>
+      </c>
+      <c r="M205">
+        <v>0.064</v>
+      </c>
+      <c r="N205">
+        <v>0.1113</v>
+      </c>
+      <c r="O205">
+        <v>1803259.6</v>
+      </c>
+      <c r="P205">
+        <v>5548639.715</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>57</v>
+      </c>
+      <c r="R205" t="s">
+        <v>58</v>
+      </c>
+      <c r="S205" t="s">
+        <v>59</v>
+      </c>
+      <c r="T205" t="s">
+        <v>60</v>
+      </c>
+      <c r="U205" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
